--- a/target/classes/testData/TestData.xlsx
+++ b/target/classes/testData/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="145">
   <si>
     <t>Nombre SubTasa</t>
   </si>
@@ -349,12 +349,6 @@
     <t>Facturado</t>
   </si>
   <si>
-    <t>BodyBien</t>
-  </si>
-  <si>
-    <t>BodyAcuerdo</t>
-  </si>
-  <si>
     <t>Acuerdo</t>
   </si>
   <si>
@@ -364,12 +358,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>ResultadoBien</t>
-  </si>
-  <si>
-    <t>ResultadoAcuerdo</t>
-  </si>
-  <si>
     <t>Facturador</t>
   </si>
   <si>
@@ -391,52 +379,88 @@
     <t>PosicionMatrizProveedor</t>
   </si>
   <si>
-    <t>RN250</t>
-  </si>
-  <si>
-    <t>DescripcionRN250</t>
-  </si>
-  <si>
-    <t>ClaseRN250</t>
-  </si>
-  <si>
-    <t>SubClaseRN250</t>
-  </si>
-  <si>
-    <t>MarcaRN250</t>
-  </si>
-  <si>
-    <t>ModeloRN250</t>
-  </si>
-  <si>
-    <t>ProvRN250</t>
-  </si>
-  <si>
-    <t>AcuerdoRN250</t>
-  </si>
-  <si>
-    <t>RN251</t>
-  </si>
-  <si>
-    <t>DescripcionRN251</t>
-  </si>
-  <si>
-    <t>ClaseRN251</t>
-  </si>
-  <si>
-    <t>SubClaseRN251</t>
-  </si>
-  <si>
-    <t>MarcaRN251</t>
-  </si>
-  <si>
-    <t>ModeloRN251</t>
-  </si>
-  <si>
-    <t>ProvRN251</t>
-  </si>
-  <si>
-    <t>AcuerdoRN251</t>
+    <t>ordenAcuerdo</t>
+  </si>
+  <si>
+    <t>ordenBien</t>
+  </si>
+  <si>
+    <t>seleccionAcuerdo</t>
+  </si>
+  <si>
+    <t>RN256</t>
+  </si>
+  <si>
+    <t>DescripcionRN256</t>
+  </si>
+  <si>
+    <t>ClaseRN256</t>
+  </si>
+  <si>
+    <t>SubClaseRN256</t>
+  </si>
+  <si>
+    <t>MarcaRN256</t>
+  </si>
+  <si>
+    <t>ModeloRN256</t>
+  </si>
+  <si>
+    <t>ProvRN256</t>
+  </si>
+  <si>
+    <t>AcuerdoRN256</t>
+  </si>
+  <si>
+    <t>RN257</t>
+  </si>
+  <si>
+    <t>DescripcionRN257</t>
+  </si>
+  <si>
+    <t>ClaseRN257</t>
+  </si>
+  <si>
+    <t>SubClaseRN257</t>
+  </si>
+  <si>
+    <t>MarcaRN257</t>
+  </si>
+  <si>
+    <t>ModeloRN257</t>
+  </si>
+  <si>
+    <t>ProvRN257</t>
+  </si>
+  <si>
+    <t>AcuerdoRN257</t>
+  </si>
+  <si>
+    <t>TCC</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>ServicioRN256</t>
+  </si>
+  <si>
+    <t>ServicioRN257</t>
+  </si>
+  <si>
+    <t>Fija</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Comafi</t>
+  </si>
+  <si>
+    <t>Canon Inicial</t>
   </si>
 </sst>
 </file>
@@ -1337,49 +1361,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,6 +1390,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1446,6 +1437,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,53 +1847,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="116"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="103" t="s">
+      <c r="B4" s="125"/>
+      <c r="C4" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="131"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
@@ -1883,14 +1907,14 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108" t="s">
+      <c r="B7" s="133"/>
+      <c r="C7" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="133"/>
       <c r="E7" s="54" t="s">
         <v>86</v>
       </c>
@@ -1898,146 +1922,146 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="132" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="134" t="s">
+      <c r="D8" s="121"/>
+      <c r="E8" s="123" t="s">
         <v>98</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="98"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="107" t="s">
+      <c r="B10" s="109"/>
+      <c r="C10" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="112" t="s">
+      <c r="D10" s="132"/>
+      <c r="E10" s="98" t="s">
         <v>98</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="127" t="s">
+      <c r="B12" s="118"/>
+      <c r="C12" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="98" t="s">
+      <c r="D12" s="116"/>
+      <c r="E12" s="99" t="s">
         <v>98</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="98"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="120" t="s">
+      <c r="B14" s="109"/>
+      <c r="C14" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="112" t="s">
+      <c r="D14" s="107"/>
+      <c r="E14" s="98" t="s">
         <v>98</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="112"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="123" t="s">
+      <c r="B16" s="111"/>
+      <c r="C16" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="98" t="s">
+      <c r="D16" s="112"/>
+      <c r="E16" s="99" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="98"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="99"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="120" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="112" t="s">
+      <c r="D18" s="107"/>
+      <c r="E18" s="98" t="s">
         <v>99</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="124"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="113"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
@@ -2061,6 +2085,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B11"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
@@ -2077,13 +2108,6 @@
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B11"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E15">
@@ -2102,7 +2126,7 @@
   <dimension ref="A1:IU27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2211,37 +2235,37 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="E4" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="K4" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="40">
@@ -2251,37 +2275,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="C5" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="E5" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="F5" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="33" t="s">
+      <c r="I5" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>134</v>
-      </c>
       <c r="K5" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L5" s="6"/>
     </row>
@@ -2693,7 +2717,7 @@
       <c r="N2" s="141"/>
       <c r="O2" s="141"/>
       <c r="P2" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2716,7 +2740,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -2751,7 +2775,7 @@
       </c>
       <c r="L4" s="3" t="str">
         <f>A4</f>
-        <v>ProvRN250</v>
+        <v>ProvRN256</v>
       </c>
       <c r="M4" s="3">
         <f>IF(N4="","",K4)</f>
@@ -2759,7 +2783,7 @@
       </c>
       <c r="N4" s="3" t="str">
         <f>IF(N(COUNTIF(D4:D4,"true")=1),A4,"")</f>
-        <v>ProvRN250</v>
+        <v>ProvRN256</v>
       </c>
       <c r="O4" s="3">
         <f>IFERROR(SMALL($M$4:$M$27,K4),"")</f>
@@ -2767,12 +2791,12 @@
       </c>
       <c r="P4" s="3" t="str">
         <f>IFERROR(VLOOKUP(O4,$K$4:$L$27,2,FALSE),"")</f>
-        <v>ProvRN250</v>
+        <v>ProvRN256</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -2804,7 +2828,7 @@
       </c>
       <c r="L5" s="3" t="str">
         <f t="shared" ref="L5:L25" si="2">A5</f>
-        <v>ProvRN251</v>
+        <v>ProvRN257</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" ref="M5:M25" si="3">IF(N5="","",K5)</f>
@@ -2812,7 +2836,7 @@
       </c>
       <c r="N5" s="3" t="str">
         <f>IF(N(COUNTIF(D5:D5,"true")=1),A5,"")</f>
-        <v>ProvRN251</v>
+        <v>ProvRN257</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" ref="O5:O25" si="4">IFERROR(SMALL($M$4:$M$27,K5),"")</f>
@@ -2820,7 +2844,7 @@
       </c>
       <c r="P5" s="3" t="str">
         <f t="shared" ref="P5:P25" si="5">IFERROR(VLOOKUP(O5,$K$4:$L$27,2,FALSE),"")</f>
-        <v>ProvRN251</v>
+        <v>ProvRN257</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3757,10 +3781,10 @@
         <v>39</v>
       </c>
       <c r="I2" s="73" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J2" s="74" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K2" s="75">
         <v>1</v>
@@ -3769,13 +3793,13 @@
         <v>2</v>
       </c>
       <c r="M2" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N2" s="73" t="s">
         <v>41</v>
       </c>
       <c r="O2" s="74" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P2" s="75">
         <v>1</v>
@@ -3784,7 +3808,7 @@
         <v>2</v>
       </c>
       <c r="R2" s="76" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
@@ -3809,7 +3833,7 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="27">
         <v>500</v>
@@ -3818,13 +3842,13 @@
         <v>200.5</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="40">
@@ -3833,7 +3857,7 @@
       </c>
       <c r="I4" s="70" t="str">
         <f>Bienes!C4</f>
-        <v>RN250</v>
+        <v>RN256</v>
       </c>
       <c r="J4" s="92">
         <v>0</v>
@@ -3852,7 +3876,7 @@
       </c>
       <c r="N4" s="16" t="str">
         <f>Proveedor!P3:P25</f>
-        <v>ProvRN250</v>
+        <v>ProvRN256</v>
       </c>
       <c r="O4" s="92">
         <v>0</v>
@@ -3872,7 +3896,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="27">
         <v>500</v>
@@ -3881,18 +3905,18 @@
         <v>200.5</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="6"/>
       <c r="I5" s="70" t="str">
         <f>Bienes!C5</f>
-        <v>RN251</v>
+        <v>RN257</v>
       </c>
       <c r="J5" s="92">
         <v>1</v>
@@ -3911,7 +3935,7 @@
       </c>
       <c r="N5" s="16" t="str">
         <f>Proveedor!P4:P26</f>
-        <v>ProvRN251</v>
+        <v>ProvRN257</v>
       </c>
       <c r="O5" s="92">
         <v>1</v>
@@ -4930,18 +4954,19 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="13" width="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="16" width="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4986,26 +5011,26 @@
         <v>106</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="79" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I2" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="82" t="s">
-        <v>109</v>
-      </c>
       <c r="K2" s="82" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L2" s="82">
         <v>1</v>
@@ -5014,7 +5039,7 @@
         <v>2</v>
       </c>
       <c r="N2" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O2" s="82">
         <v>1</v>
@@ -5023,13 +5048,13 @@
         <v>2</v>
       </c>
       <c r="Q2" s="91" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="R2" s="81" t="s">
         <v>10</v>
       </c>
       <c r="S2" s="54" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5054,119 +5079,135 @@
       <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="40">
         <f>COUNTA(A3:A22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="9" t="str">
         <f>Bienes!C4</f>
-        <v>RN250</v>
-      </c>
-      <c r="I4" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+        <v>RN256</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="str">
         <f>AcuerdoServicio!A4</f>
-        <v>AcuerdoRN250</v>
-      </c>
-      <c r="K4" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L4" s="3" t="e">
+        <v>AcuerdoRN256</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
         <f>IF(D4=H4,I4,IF(D4=H5,I5,IF(D4=H6,I6,IF(D4=H7,I7,IF(D4=H8,I8,IF(D4=H9,I9,IF(D4=H10,I10,IF(D4=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M4" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <f>IF(L4="Excedido",IF(D4=H12,I12,IF(D4=H13,I13,IF(D4=H14,I14,IF(D4=H15,I15,IF(D4=H16,I16,IF(D4=H17,I17,IF(D4=H18:H18,I18,"Excedido"))))))),L4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N4" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <f>IF(M4="Excedido",IF(D4=H19,I19,IF(D4=H20,I20,IF(D4=H21,I21,IF(D4=H22,I22,IF(D4=H23,I23,IF(D4=H24,I24,IF(D4=H25,I25,"Excedido"))))))),M4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O4" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
         <f>IF(E4=J4,K4,IF(E4=J5,K5,IF(E4=J6,K6,IF(E4=J7,K7,IF(E4=J8,K8,IF(E4=J9,K9,IF(E4=J10,K10,IF(E4=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P4" s="3" t="e">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
         <f>IF(O4="Excedido",IF(E4=J12,K12,IF(E4=J13,K13,IF(E4=J14,K14,IF(E4=J15,K15,IF(E4=J16,K16,IF(E4=J17,K17,IF(E4=J18:J18,K18,"Excedido"))))))),O4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q4" s="69" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="69">
         <f>IF(P4="Excedido",IF(E4=J19,K19,IF(E4=J20,K20,IF(E4=J21,K21,IF(E4=J22,K22,IF(E4=J23,K23,IF(E4=J24,K24,IF(E4=J25,K25,"Excedido"))))))),P4)</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
       <c r="R4" s="9">
         <f>IF(B4="TCC",1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" s="10">
         <f>IF(C4="TCC",1,2)</f>
         <v>2</v>
       </c>
-      <c r="T4" t="e">
+      <c r="T4">
         <f>N4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U4" t="e">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <f>Q4</f>
-        <v>#REF!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="H5" s="9" t="str">
         <f>Bienes!C5</f>
-        <v>RN251</v>
-      </c>
-      <c r="I5" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+        <v>RN257</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
       </c>
       <c r="J5" s="3" t="str">
         <f>AcuerdoServicio!A5</f>
-        <v>AcuerdoRN251</v>
-      </c>
-      <c r="K5" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L5" s="3" t="e">
+        <v>AcuerdoRN257</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
         <f>IF(D5=H4,I4,IF(D5=H5,I5,IF(D5=H6,I6,IF(D5=H7,I7,IF(D5=H8,I8,IF(D5=H9,I9,IF(D5=H10,I10,IF(D5=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M5" s="3" t="e">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
         <f>IF(L5="Excedido",IF(D5=H12,I12,IF(D5=H13,I13,IF(D5=H14,I14,IF(D5=H15,I15,IF(D5=H16,I16,IF(D5=H17,I17,IF(D5=H18:H18,I18,"Excedido"))))))),L5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N5" s="3" t="e">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
         <f>IF(M5="Excedido",IF(D5=H19,I19,IF(D5=H20,I20,IF(D5=H21,I21,IF(D5=H22,I22,IF(D5=H23,I23,IF(D5=H24,I24,IF(D5=H25,I25,"Excedido"))))))),M5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O5" s="3" t="e">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
         <f>IF(E5=J4,K4,IF(E5=J5,K5,IF(E5=J6,K6,IF(E5=J7,K7,IF(E5=J8,K8,IF(E5=J9,K9,IF(E5=J10,K10,IF(E5=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P5" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
         <f>IF(O5="Excedido",IF(E5=J12,K12,IF(E5=J13,K13,IF(E5=J14,K14,IF(E5=J15,K15,IF(E5=J16,K16,IF(E5=J17,K17,IF(E5=J18:J18,K18,"Excedido"))))))),O5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q5" s="69" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="69">
         <f>IF(P5="Excedido",IF(E5=J19,K19,IF(E5=J20,K20,IF(E5=J21,K21,IF(E5=J22,K22,IF(E5=J23,K23,IF(E5=J24,K24,IF(E5=J25,K25,"Excedido"))))))),P5)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" ref="R5:R25" si="0">IF(B5="TCC",1,2)</f>
@@ -5174,15 +5215,15 @@
       </c>
       <c r="S5" s="10">
         <f t="shared" ref="S5:S25" si="1">IF(C5="TCC",1,2)</f>
-        <v>2</v>
-      </c>
-      <c r="T5" t="e">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <f t="shared" ref="T5:T25" si="2">N5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U5" t="e">
+        <v>1</v>
+      </c>
+      <c r="U5">
         <f t="shared" ref="U5:U25" si="3">Q5</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -5196,41 +5237,39 @@
         <f>Bienes!C6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I6" s="3">
+        <v>2</v>
       </c>
       <c r="J6" s="3">
         <f>AcuerdoServicio!A6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L6" s="3" t="e">
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3">
         <f>IF(D6=H4,I4,IF(D6=H5,I5,IF(D6=H6,I6,IF(D6=H7,I7,IF(D6=H8,I8,IF(D6=H9,I9,IF(D6=H10,I10,IF(D6=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M6" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
         <f>IF(L6="Excedido",IF(D6=H12,I12,IF(D6=H13,I13,IF(D6=H14,I14,IF(D6=H15,I15,IF(D6=H16,I16,IF(D6=H17,I17,IF(D6=H18:H18,I18,"Excedido"))))))),L6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N6" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
         <f>IF(M6="Excedido",IF(D6=H19,I19,IF(D6=H20,I20,IF(D6=H21,I21,IF(D6=H22,I22,IF(D6=H23,I23,IF(D6=H24,I24,IF(D6=H25,I25,"Excedido"))))))),M6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O6" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
         <f>IF(E6=J4,K4,IF(E6=J5,K5,IF(E6=J6,K6,IF(E6=J7,K7,IF(E6=J8,K8,IF(E6=J9,K9,IF(E6=J10,K10,IF(E6=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P6" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3">
         <f>IF(O6="Excedido",IF(E6=J12,K12,IF(E6=J13,K13,IF(E6=J14,K14,IF(E6=J15,K15,IF(E6=J16,K16,IF(E6=J17,K17,IF(E6=J18:J18,K18,"Excedido"))))))),O6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q6" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="69">
         <f>IF(P6="Excedido",IF(E6=J19,K19,IF(E6=J20,K20,IF(E6=J21,K21,IF(E6=J22,K22,IF(E6=J23,K23,IF(E6=J24,K24,IF(E6=J25,K25,"Excedido"))))))),P6)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" si="0"/>
@@ -5240,13 +5279,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T6" t="e">
+      <c r="T6">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U6" t="e">
+        <v>2</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -5260,41 +5299,39 @@
         <f>Bienes!C7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I7" s="3">
+        <v>3</v>
       </c>
       <c r="J7" s="3">
         <f>AcuerdoServicio!A7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="3" t="e">
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
         <f>IF(D7=H4,I4,IF(D7=H5,I5,IF(D7=H6,I6,IF(D7=H7,I7,IF(D7=H8,I8,IF(D7=H9,I9,IF(D7=H10,I10,IF(D7=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
         <f>IF(L7="Excedido",IF(D7=H12,I12,IF(D7=H13,I13,IF(D7=H14,I14,IF(D7=H15,I15,IF(D7=H16,I16,IF(D7=H17,I17,IF(D7=H18:H18,I18,"Excedido"))))))),L7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N7" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
         <f>IF(M7="Excedido",IF(D7=H19,I19,IF(D7=H20,I20,IF(D7=H21,I21,IF(D7=H22,I22,IF(D7=H23,I23,IF(D7=H24,I24,IF(D7=H25,I25,"Excedido"))))))),M7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O7" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3">
         <f>IF(E7=J4,K4,IF(E7=J5,K5,IF(E7=J6,K6,IF(E7=J7,K7,IF(E7=J8,K8,IF(E7=J9,K9,IF(E7=J10,K10,IF(E7=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P7" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P7" s="3">
         <f>IF(O7="Excedido",IF(E7=J12,K12,IF(E7=J13,K13,IF(E7=J14,K14,IF(E7=J15,K15,IF(E7=J16,K16,IF(E7=J17,K17,IF(E7=J18:J18,K18,"Excedido"))))))),O7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="69">
         <f>IF(P7="Excedido",IF(E7=J19,K19,IF(E7=J20,K20,IF(E7=J21,K21,IF(E7=J22,K22,IF(E7=J23,K23,IF(E7=J24,K24,IF(E7=J25,K25,"Excedido"))))))),P7)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="0"/>
@@ -5304,13 +5341,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T7" t="e">
+      <c r="T7">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U7" t="e">
+        <v>2</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -5324,41 +5361,39 @@
         <f>Bienes!C8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I8" s="3">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <f>AcuerdoServicio!A8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L8" s="3" t="e">
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <f>IF(D8=H4,I4,IF(D8=H5,I5,IF(D8=H6,I6,IF(D8=H7,I7,IF(D8=H8,I8,IF(D8=H9,I9,IF(D8=H10,I10,IF(D8=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M8" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3">
         <f>IF(L8="Excedido",IF(D8=H12,I12,IF(D8=H13,I13,IF(D8=H14,I14,IF(D8=H15,I15,IF(D8=H16,I16,IF(D8=H17,I17,IF(D8=H18:H18,I18,"Excedido"))))))),L8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N8" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
         <f>IF(M8="Excedido",IF(D8=H19,I19,IF(D8=H20,I20,IF(D8=H21,I21,IF(D8=H22,I22,IF(D8=H23,I23,IF(D8=H24,I24,IF(D8=H25,I25,"Excedido"))))))),M8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O8" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3">
         <f>IF(E8=J4,K4,IF(E8=J5,K5,IF(E8=J6,K6,IF(E8=J7,K7,IF(E8=J8,K8,IF(E8=J9,K9,IF(E8=J10,K10,IF(E8=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P8" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3">
         <f>IF(O8="Excedido",IF(E8=J12,K12,IF(E8=J13,K13,IF(E8=J14,K14,IF(E8=J15,K15,IF(E8=J16,K16,IF(E8=J17,K17,IF(E8=J18:J18,K18,"Excedido"))))))),O8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q8" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="69">
         <f>IF(P8="Excedido",IF(E8=J19,K19,IF(E8=J20,K20,IF(E8=J21,K21,IF(E8=J22,K22,IF(E8=J23,K23,IF(E8=J24,K24,IF(E8=J25,K25,"Excedido"))))))),P8)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="0"/>
@@ -5368,13 +5403,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T8" t="e">
+      <c r="T8">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U8" t="e">
+        <v>2</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -5388,41 +5423,39 @@
         <f>Bienes!C9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I9" s="3">
+        <v>5</v>
       </c>
       <c r="J9" s="3">
         <f>AcuerdoServicio!A9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" s="3" t="e">
+      <c r="K9" s="3">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <f>IF(D9=H4,I4,IF(D9=H5,I5,IF(D9=H6,I6,IF(D9=H7,I7,IF(D9=H8,I8,IF(D9=H9,I9,IF(D9=H10,I10,IF(D9=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3">
         <f>IF(L9="Excedido",IF(D9=H12,I12,IF(D9=H13,I13,IF(D9=H14,I14,IF(D9=H15,I15,IF(D9=H16,I16,IF(D9=H17,I17,IF(D9=H18:H18,I18,"Excedido"))))))),L9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N9" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
         <f>IF(M9="Excedido",IF(D9=H19,I19,IF(D9=H20,I20,IF(D9=H21,I21,IF(D9=H22,I22,IF(D9=H23,I23,IF(D9=H24,I24,IF(D9=H25,I25,"Excedido"))))))),M9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O9" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3">
         <f>IF(E9=J4,K4,IF(E9=J5,K5,IF(E9=J6,K6,IF(E9=J7,K7,IF(E9=J8,K8,IF(E9=J9,K9,IF(E9=J10,K10,IF(E9=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P9" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3">
         <f>IF(O9="Excedido",IF(E9=J12,K12,IF(E9=J13,K13,IF(E9=J14,K14,IF(E9=J15,K15,IF(E9=J16,K16,IF(E9=J17,K17,IF(E9=J18:J18,K18,"Excedido"))))))),O9)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q9" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="69">
         <f>IF(P9="Excedido",IF(E9=J19,K19,IF(E9=J20,K20,IF(E9=J21,K21,IF(E9=J22,K22,IF(E9=J23,K23,IF(E9=J24,K24,IF(E9=J25,K25,"Excedido"))))))),P9)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R9" s="9">
         <f t="shared" si="0"/>
@@ -5432,13 +5465,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T9" t="e">
+      <c r="T9">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U9" t="e">
+        <v>2</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -5452,41 +5485,39 @@
         <f>Bienes!C10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I10" s="3">
+        <v>6</v>
       </c>
       <c r="J10" s="3">
         <f>AcuerdoServicio!A10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L10" s="3" t="e">
+      <c r="K10" s="3">
+        <v>6</v>
+      </c>
+      <c r="L10" s="3">
         <f>IF(D10=H4,I4,IF(D10=H5,I5,IF(D10=H6,I6,IF(D10=H7,I7,IF(D10=H8,I8,IF(D10=H9,I9,IF(D10=H10,I10,IF(D10=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M10" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
         <f>IF(L10="Excedido",IF(D10=H12,I12,IF(D10=H13,I13,IF(D10=H14,I14,IF(D10=H15,I15,IF(D10=H16,I16,IF(D10=H17,I17,IF(D10=H18:H18,I18,"Excedido"))))))),L10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N10" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3">
         <f>IF(M10="Excedido",IF(D10=H19,I19,IF(D10=H20,I20,IF(D10=H21,I21,IF(D10=H22,I22,IF(D10=H23,I23,IF(D10=H24,I24,IF(D10=H25,I25,"Excedido"))))))),M10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O10" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3">
         <f>IF(E10=J4,K4,IF(E10=J5,K5,IF(E10=J6,K6,IF(E10=J7,K7,IF(E10=J8,K8,IF(E10=J9,K9,IF(E10=J10,K10,IF(E10=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P10" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P10" s="3">
         <f>IF(O10="Excedido",IF(E10=J12,K12,IF(E10=J13,K13,IF(E10=J14,K14,IF(E10=J15,K15,IF(E10=J16,K16,IF(E10=J17,K17,IF(E10=J18:J18,K18,"Excedido"))))))),O10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q10" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="69">
         <f>IF(P10="Excedido",IF(E10=J19,K19,IF(E10=J20,K20,IF(E10=J21,K21,IF(E10=J22,K22,IF(E10=J23,K23,IF(E10=J24,K24,IF(E10=J25,K25,"Excedido"))))))),P10)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R10" s="9">
         <f t="shared" si="0"/>
@@ -5496,13 +5527,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T10" t="e">
+      <c r="T10">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U10" t="e">
+        <v>2</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -5516,41 +5547,39 @@
         <f>Bienes!C11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I11" s="3">
+        <v>7</v>
       </c>
       <c r="J11" s="3">
         <f>AcuerdoServicio!A11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L11" s="3" t="e">
+      <c r="K11" s="3">
+        <v>7</v>
+      </c>
+      <c r="L11" s="3">
         <f>IF(D11=H4,I4,IF(D11=H5,I5,IF(D11=H6,I6,IF(D11=H7,I7,IF(D11=H8,I8,IF(D11=H9,I9,IF(D11=H10,I10,IF(D11=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M11" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
         <f>IF(L11="Excedido",IF(D11=H12,I12,IF(D11=H13,I13,IF(D11=H14,I14,IF(D11=H15,I15,IF(D11=H16,I16,IF(D11=H17,I17,IF(D11=H18:H18,I18,"Excedido"))))))),L11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N11" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
         <f>IF(M11="Excedido",IF(D11=H19,I19,IF(D11=H20,I20,IF(D11=H21,I21,IF(D11=H22,I22,IF(D11=H23,I23,IF(D11=H24,I24,IF(D11=H25,I25,"Excedido"))))))),M11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O11" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3">
         <f>IF(E11=J4,K4,IF(E11=J5,K5,IF(E11=J6,K6,IF(E11=J7,K7,IF(E11=J8,K8,IF(E11=J9,K9,IF(E11=J10,K10,IF(E11=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P11" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3">
         <f>IF(O11="Excedido",IF(E11=J12,K12,IF(E11=J13,K13,IF(E11=J14,K14,IF(E11=J15,K15,IF(E11=J16,K16,IF(E11=J17,K17,IF(E11=J18:J18,K18,"Excedido"))))))),O11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q11" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="69">
         <f>IF(P11="Excedido",IF(E11=J19,K19,IF(E11=J20,K20,IF(E11=J21,K21,IF(E11=J22,K22,IF(E11=J23,K23,IF(E11=J24,K24,IF(E11=J25,K25,"Excedido"))))))),P11)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R11" s="9">
         <f t="shared" si="0"/>
@@ -5560,13 +5589,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T11" t="e">
+      <c r="T11">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U11" t="e">
+        <v>2</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -5580,41 +5609,39 @@
         <f>Bienes!C12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I12" s="3">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
         <f>AcuerdoServicio!A12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" s="3" t="e">
+      <c r="K12" s="3">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
         <f>IF(D12=H4,I4,IF(D12=H5,I5,IF(D12=H6,I6,IF(D12=H7,I7,IF(D12=H8,I8,IF(D12=H9,I9,IF(D12=H10,I10,IF(D12=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M12" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3">
         <f>IF(L12="Excedido",IF(D12=H12,I12,IF(D12=H13,I13,IF(D12=H14,I14,IF(D12=H15,I15,IF(D12=H16,I16,IF(D12=H17,I17,IF(D12=H18:H18,I18,"Excedido"))))))),L12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N12" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
         <f>IF(M12="Excedido",IF(D12=H19,I19,IF(D12=H20,I20,IF(D12=H21,I21,IF(D12=H22,I22,IF(D12=H23,I23,IF(D12=H24,I24,IF(D12=H25,I25,"Excedido"))))))),M12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O12" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3">
         <f>IF(E12=J4,K4,IF(E12=J5,K5,IF(E12=J6,K6,IF(E12=J7,K7,IF(E12=J8,K8,IF(E12=J9,K9,IF(E12=J10,K10,IF(E12=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P12" s="3">
         <f>IF(O12="Excedido",IF(E12=J12,K12,IF(E12=J13,K13,IF(E12=J14,K14,IF(E12=J15,K15,IF(E12=J16,K16,IF(E12=J17,K17,IF(E12=J18:J18,K18,"Excedido"))))))),O12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q12" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="69">
         <f>IF(P12="Excedido",IF(E12=J19,K19,IF(E12=J20,K20,IF(E12=J21,K21,IF(E12=J22,K22,IF(E12=J23,K23,IF(E12=J24,K24,IF(E12=J25,K25,"Excedido"))))))),P12)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="0"/>
@@ -5624,13 +5651,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T12" t="e">
+      <c r="T12">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U12" t="e">
+        <v>2</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -5644,41 +5671,39 @@
         <f>Bienes!C13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I13" s="3">
+        <v>9</v>
       </c>
       <c r="J13" s="3">
         <f>AcuerdoServicio!A13</f>
         <v>0</v>
       </c>
-      <c r="K13" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" s="3" t="e">
+      <c r="K13" s="3">
+        <v>9</v>
+      </c>
+      <c r="L13" s="3">
         <f>IF(D13=H4,I4,IF(D13=H5,I5,IF(D13=H6,I6,IF(D13=H7,I7,IF(D13=H8,I8,IF(D13=H9,I9,IF(D13=H10,I10,IF(D13=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M13" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
         <f>IF(L13="Excedido",IF(D13=H12,I12,IF(D13=H13,I13,IF(D13=H14,I14,IF(D13=H15,I15,IF(D13=H16,I16,IF(D13=H17,I17,IF(D13=H18:H18,I18,"Excedido"))))))),L13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N13" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
         <f>IF(M13="Excedido",IF(D13=H19,I19,IF(D13=H20,I20,IF(D13=H21,I21,IF(D13=H22,I22,IF(D13=H23,I23,IF(D13=H24,I24,IF(D13=H25,I25,"Excedido"))))))),M13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O13" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3">
         <f>IF(E13=J4,K4,IF(E13=J5,K5,IF(E13=J6,K6,IF(E13=J7,K7,IF(E13=J8,K8,IF(E13=J9,K9,IF(E13=J10,K10,IF(E13=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P13" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3">
         <f>IF(O13="Excedido",IF(E13=J12,K12,IF(E13=J13,K13,IF(E13=J14,K14,IF(E13=J15,K15,IF(E13=J16,K16,IF(E13=J17,K17,IF(E13=J18:J18,K18,"Excedido"))))))),O13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q13" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="69">
         <f>IF(P13="Excedido",IF(E13=J19,K19,IF(E13=J20,K20,IF(E13=J21,K21,IF(E13=J22,K22,IF(E13=J23,K23,IF(E13=J24,K24,IF(E13=J25,K25,"Excedido"))))))),P13)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R13" s="9">
         <f t="shared" si="0"/>
@@ -5688,13 +5713,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T13" t="e">
+      <c r="T13">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U13" t="e">
+        <v>2</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -5708,41 +5733,39 @@
         <f>Bienes!C14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I14" s="3">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <f>AcuerdoServicio!A14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L14" s="3" t="e">
+      <c r="K14" s="3">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <f>IF(D14=H4,I4,IF(D14=H5,I5,IF(D14=H6,I6,IF(D14=H7,I7,IF(D14=H8,I8,IF(D14=H9,I9,IF(D14=H10,I10,IF(D14=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M14" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
         <f>IF(L14="Excedido",IF(D14=H12,I12,IF(D14=H13,I13,IF(D14=H14,I14,IF(D14=H15,I15,IF(D14=H16,I16,IF(D14=H17,I17,IF(D14=H18:H18,I18,"Excedido"))))))),L14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N14" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N14" s="3">
         <f>IF(M14="Excedido",IF(D14=H19,I19,IF(D14=H20,I20,IF(D14=H21,I21,IF(D14=H22,I22,IF(D14=H23,I23,IF(D14=H24,I24,IF(D14=H25,I25,"Excedido"))))))),M14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O14" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O14" s="3">
         <f>IF(E14=J4,K4,IF(E14=J5,K5,IF(E14=J6,K6,IF(E14=J7,K7,IF(E14=J8,K8,IF(E14=J9,K9,IF(E14=J10,K10,IF(E14=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P14" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P14" s="3">
         <f>IF(O14="Excedido",IF(E14=J12,K12,IF(E14=J13,K13,IF(E14=J14,K14,IF(E14=J15,K15,IF(E14=J16,K16,IF(E14=J17,K17,IF(E14=J18:J18,K18,"Excedido"))))))),O14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q14" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="69">
         <f>IF(P14="Excedido",IF(E14=J19,K19,IF(E14=J20,K20,IF(E14=J21,K21,IF(E14=J22,K22,IF(E14=J23,K23,IF(E14=J24,K24,IF(E14=J25,K25,"Excedido"))))))),P14)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="0"/>
@@ -5752,13 +5775,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T14" t="e">
+      <c r="T14">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U14" t="e">
+        <v>2</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -5772,41 +5795,39 @@
         <f>Bienes!C15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I15" s="3">
+        <v>11</v>
       </c>
       <c r="J15" s="3">
         <f>AcuerdoServicio!A15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" s="3" t="e">
+      <c r="K15" s="3">
+        <v>11</v>
+      </c>
+      <c r="L15" s="3">
         <f>IF(D15=H4,I4,IF(D15=H5,I5,IF(D15=H6,I6,IF(D15=H7,I7,IF(D15=H8,I8,IF(D15=H9,I9,IF(D15=H10,I10,IF(D15=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M15" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M15" s="3">
         <f>IF(L15="Excedido",IF(D15=H12,I12,IF(D15=H13,I13,IF(D15=H14,I14,IF(D15=H15,I15,IF(D15=H16,I16,IF(D15=H17,I17,IF(D15=H18:H18,I18,"Excedido"))))))),L15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N15" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3">
         <f>IF(M15="Excedido",IF(D15=H19,I19,IF(D15=H20,I20,IF(D15=H21,I21,IF(D15=H22,I22,IF(D15=H23,I23,IF(D15=H24,I24,IF(D15=H25,I25,"Excedido"))))))),M15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O15" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3">
         <f>IF(E15=J4,K4,IF(E15=J5,K5,IF(E15=J6,K6,IF(E15=J7,K7,IF(E15=J8,K8,IF(E15=J9,K9,IF(E15=J10,K10,IF(E15=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P15" s="3">
         <f>IF(O15="Excedido",IF(E15=J12,K12,IF(E15=J13,K13,IF(E15=J14,K14,IF(E15=J15,K15,IF(E15=J16,K16,IF(E15=J17,K17,IF(E15=J18:J18,K18,"Excedido"))))))),O15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q15" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="69">
         <f>IF(P15="Excedido",IF(E15=J19,K19,IF(E15=J20,K20,IF(E15=J21,K21,IF(E15=J22,K22,IF(E15=J23,K23,IF(E15=J24,K24,IF(E15=J25,K25,"Excedido"))))))),P15)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="0"/>
@@ -5816,13 +5837,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T15" t="e">
+      <c r="T15">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U15" t="e">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5836,41 +5857,39 @@
         <f>Bienes!C16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I16" s="3">
+        <v>12</v>
       </c>
       <c r="J16" s="3">
         <f>AcuerdoServicio!A16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L16" s="3" t="e">
+      <c r="K16" s="3">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3">
         <f>IF(D16=H4,I4,IF(D16=H5,I5,IF(D16=H6,I6,IF(D16=H7,I7,IF(D16=H8,I8,IF(D16=H9,I9,IF(D16=H10,I10,IF(D16=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M16" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3">
         <f>IF(L16="Excedido",IF(D16=H12,I12,IF(D16=H13,I13,IF(D16=H14,I14,IF(D16=H15,I15,IF(D16=H16,I16,IF(D16=H17,I17,IF(D16=H18:H18,I18,"Excedido"))))))),L16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N16" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N16" s="3">
         <f>IF(M16="Excedido",IF(D16=H19,I19,IF(D16=H20,I20,IF(D16=H21,I21,IF(D16=H22,I22,IF(D16=H23,I23,IF(D16=H24,I24,IF(D16=H25,I25,"Excedido"))))))),M16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O16" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3">
         <f>IF(E16=J4,K4,IF(E16=J5,K5,IF(E16=J6,K6,IF(E16=J7,K7,IF(E16=J8,K8,IF(E16=J9,K9,IF(E16=J10,K10,IF(E16=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P16" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P16" s="3">
         <f>IF(O16="Excedido",IF(E16=J12,K12,IF(E16=J13,K13,IF(E16=J14,K14,IF(E16=J15,K15,IF(E16=J16,K16,IF(E16=J17,K17,IF(E16=J18:J18,K18,"Excedido"))))))),O16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q16" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="69">
         <f>IF(P16="Excedido",IF(E16=J19,K19,IF(E16=J20,K20,IF(E16=J21,K21,IF(E16=J22,K22,IF(E16=J23,K23,IF(E16=J24,K24,IF(E16=J25,K25,"Excedido"))))))),P16)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="0"/>
@@ -5880,13 +5899,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T16" t="e">
+      <c r="T16">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U16" t="e">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -5900,41 +5919,39 @@
         <f>Bienes!C17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I17" s="3">
+        <v>13</v>
       </c>
       <c r="J17" s="3">
         <f>AcuerdoServicio!A17</f>
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L17" s="3" t="e">
+      <c r="K17" s="3">
+        <v>13</v>
+      </c>
+      <c r="L17" s="3">
         <f>IF(D17=H4,I4,IF(D17=H5,I5,IF(D17=H6,I6,IF(D17=H7,I7,IF(D17=H8,I8,IF(D17=H9,I9,IF(D17=H10,I10,IF(D17=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3">
         <f>IF(L17="Excedido",IF(D17=H12,I12,IF(D17=H13,I13,IF(D17=H14,I14,IF(D17=H15,I15,IF(D17=H16,I16,IF(D17=H17,I17,IF(D17=H18:H18,I18,"Excedido"))))))),L17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N17" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3">
         <f>IF(M17="Excedido",IF(D17=H19,I19,IF(D17=H20,I20,IF(D17=H21,I21,IF(D17=H22,I22,IF(D17=H23,I23,IF(D17=H24,I24,IF(D17=H25,I25,"Excedido"))))))),M17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O17" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O17" s="3">
         <f>IF(E17=J4,K4,IF(E17=J5,K5,IF(E17=J6,K6,IF(E17=J7,K7,IF(E17=J8,K8,IF(E17=J9,K9,IF(E17=J10,K10,IF(E17=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P17" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P17" s="3">
         <f>IF(O17="Excedido",IF(E17=J12,K12,IF(E17=J13,K13,IF(E17=J14,K14,IF(E17=J15,K15,IF(E17=J16,K16,IF(E17=J17,K17,IF(E17=J18:J18,K18,"Excedido"))))))),O17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q17" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="69">
         <f>IF(P17="Excedido",IF(E17=J19,K19,IF(E17=J20,K20,IF(E17=J21,K21,IF(E17=J22,K22,IF(E17=J23,K23,IF(E17=J24,K24,IF(E17=J25,K25,"Excedido"))))))),P17)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="0"/>
@@ -5944,13 +5961,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T17" t="e">
+      <c r="T17">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U17" t="e">
+        <v>2</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -5964,41 +5981,39 @@
         <f>Bienes!C18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I18" s="3">
+        <v>14</v>
       </c>
       <c r="J18" s="3">
         <f>AcuerdoServicio!A18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" s="3" t="e">
+      <c r="K18" s="3">
+        <v>14</v>
+      </c>
+      <c r="L18" s="3">
         <f>IF(D18=H4,I4,IF(D18=H5,I5,IF(D18=H6,I6,IF(D18=H7,I7,IF(D18=H8,I8,IF(D18=H9,I9,IF(D18=H10,I10,IF(D18=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M18" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M18" s="3">
         <f>IF(L18="Excedido",IF(D18=H12,I12,IF(D18=H13,I13,IF(D18=H14,I14,IF(D18=H15,I15,IF(D18=H16,I16,IF(D18=H17,I17,IF(D18=H18:H18,I18,"Excedido"))))))),L18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N18" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3">
         <f>IF(M18="Excedido",IF(D18=H19,I19,IF(D18=H20,I20,IF(D18=H21,I21,IF(D18=H22,I22,IF(D18=H23,I23,IF(D18=H24,I24,IF(D18=H25,I25,"Excedido"))))))),M18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O18" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3">
         <f>IF(E18=J4,K4,IF(E18=J5,K5,IF(E18=J6,K6,IF(E18=J7,K7,IF(E18=J8,K8,IF(E18=J9,K9,IF(E18=J10,K10,IF(E18=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P18" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P18" s="3">
         <f>IF(O18="Excedido",IF(E18=J12,K12,IF(E18=J13,K13,IF(E18=J14,K14,IF(E18=J15,K15,IF(E18=J16,K16,IF(E18=J17,K17,IF(E18=J18:J18,K18,"Excedido"))))))),O18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q18" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="69">
         <f>IF(P18="Excedido",IF(E18=J19,K19,IF(E18=J20,K20,IF(E18=J21,K21,IF(E18=J22,K22,IF(E18=J23,K23,IF(E18=J24,K24,IF(E18=J25,K25,"Excedido"))))))),P18)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R18" s="9">
         <f t="shared" si="0"/>
@@ -6008,13 +6023,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T18" t="e">
+      <c r="T18">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U18" t="e">
+        <v>2</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -6028,41 +6043,39 @@
         <f>Bienes!C19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I19" s="3">
+        <v>15</v>
       </c>
       <c r="J19" s="3">
         <f>AcuerdoServicio!A19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L19" s="3" t="e">
+      <c r="K19" s="3">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3">
         <f>IF(D19=H4,I4,IF(D19=H5,I5,IF(D19=H6,I6,IF(D19=H7,I7,IF(D19=H8,I8,IF(D19=H9,I9,IF(D19=H10,I10,IF(D19=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M19" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
         <f>IF(L19="Excedido",IF(D19=H12,I12,IF(D19=H13,I13,IF(D19=H14,I14,IF(D19=H15,I15,IF(D19=H16,I16,IF(D19=H17,I17,IF(D19=H18:H18,I18,"Excedido"))))))),L19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N19" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N19" s="3">
         <f>IF(M19="Excedido",IF(D19=H19,I19,IF(D19=H20,I20,IF(D19=H21,I21,IF(D19=H22,I22,IF(D19=H23,I23,IF(D19=H24,I24,IF(D19=H25,I25,"Excedido"))))))),M19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O19" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O19" s="3">
         <f>IF(E19=J4,K4,IF(E19=J5,K5,IF(E19=J6,K6,IF(E19=J7,K7,IF(E19=J8,K8,IF(E19=J9,K9,IF(E19=J10,K10,IF(E19=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P19" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P19" s="3">
         <f>IF(O19="Excedido",IF(E19=J12,K12,IF(E19=J13,K13,IF(E19=J14,K14,IF(E19=J15,K15,IF(E19=J16,K16,IF(E19=J17,K17,IF(E19=J18:J18,K18,"Excedido"))))))),O19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q19" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="69">
         <f>IF(P19="Excedido",IF(E19=J19,K19,IF(E19=J20,K20,IF(E19=J21,K21,IF(E19=J22,K22,IF(E19=J23,K23,IF(E19=J24,K24,IF(E19=J25,K25,"Excedido"))))))),P19)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R19" s="9">
         <f t="shared" si="0"/>
@@ -6072,13 +6085,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T19" t="e">
+      <c r="T19">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U19" t="e">
+        <v>2</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -6092,41 +6105,39 @@
         <f>Bienes!C20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I20" s="3">
+        <v>16</v>
       </c>
       <c r="J20" s="3">
         <f>AcuerdoServicio!A20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="3" t="e">
+      <c r="K20" s="3">
+        <v>16</v>
+      </c>
+      <c r="L20" s="3">
         <f>IF(D20=H4,I4,IF(D20=H5,I5,IF(D20=H6,I6,IF(D20=H7,I7,IF(D20=H8,I8,IF(D20=H9,I9,IF(D20=H10,I10,IF(D20=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M20" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M20" s="3">
         <f>IF(L20="Excedido",IF(D20=H12,I12,IF(D20=H13,I13,IF(D20=H14,I14,IF(D20=H15,I15,IF(D20=H16,I16,IF(D20=H17,I17,IF(D20=H18:H18,I18,"Excedido"))))))),L20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N20" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3">
         <f>IF(M20="Excedido",IF(D20=H19,I19,IF(D20=H20,I20,IF(D20=H21,I21,IF(D20=H22,I22,IF(D20=H23,I23,IF(D20=H24,I24,IF(D20=H25,I25,"Excedido"))))))),M20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O20" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O20" s="3">
         <f>IF(E20=J4,K4,IF(E20=J5,K5,IF(E20=J6,K6,IF(E20=J7,K7,IF(E20=J8,K8,IF(E20=J9,K9,IF(E20=J10,K10,IF(E20=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P20" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P20" s="3">
         <f>IF(O20="Excedido",IF(E20=J12,K12,IF(E20=J13,K13,IF(E20=J14,K14,IF(E20=J15,K15,IF(E20=J16,K16,IF(E20=J17,K17,IF(E20=J18:J18,K18,"Excedido"))))))),O20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q20" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="69">
         <f>IF(P20="Excedido",IF(E20=J19,K19,IF(E20=J20,K20,IF(E20=J21,K21,IF(E20=J22,K22,IF(E20=J23,K23,IF(E20=J24,K24,IF(E20=J25,K25,"Excedido"))))))),P20)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R20" s="9">
         <f t="shared" si="0"/>
@@ -6136,13 +6147,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T20" t="e">
+      <c r="T20">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U20" t="e">
+        <v>2</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6156,41 +6167,39 @@
         <f>Bienes!C21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I21" s="3">
+        <v>17</v>
       </c>
       <c r="J21" s="3">
         <f>AcuerdoServicio!A21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="3" t="e">
+      <c r="K21" s="3">
+        <v>17</v>
+      </c>
+      <c r="L21" s="3">
         <f>IF(D21=H4,I4,IF(D21=H5,I5,IF(D21=H6,I6,IF(D21=H7,I7,IF(D21=H8,I8,IF(D21=H9,I9,IF(D21=H10,I10,IF(D21=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M21" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
         <f>IF(L21="Excedido",IF(D21=H12,I12,IF(D21=H13,I13,IF(D21=H14,I14,IF(D21=H15,I15,IF(D21=H16,I16,IF(D21=H17,I17,IF(D21=H18:H18,I18,"Excedido"))))))),L21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N21" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N21" s="3">
         <f>IF(M21="Excedido",IF(D21=H19,I19,IF(D21=H20,I20,IF(D21=H21,I21,IF(D21=H22,I22,IF(D21=H23,I23,IF(D21=H24,I24,IF(D21=H25,I25,"Excedido"))))))),M21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O21" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O21" s="3">
         <f>IF(E21=J4,K4,IF(E21=J5,K5,IF(E21=J6,K6,IF(E21=J7,K7,IF(E21=J8,K8,IF(E21=J9,K9,IF(E21=J10,K10,IF(E21=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P21" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P21" s="3">
         <f>IF(O21="Excedido",IF(E21=J12,K12,IF(E21=J13,K13,IF(E21=J14,K14,IF(E21=J15,K15,IF(E21=J16,K16,IF(E21=J17,K17,IF(E21=J18:J18,K18,"Excedido"))))))),O21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q21" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="69">
         <f>IF(P21="Excedido",IF(E21=J19,K19,IF(E21=J20,K20,IF(E21=J21,K21,IF(E21=J22,K22,IF(E21=J23,K23,IF(E21=J24,K24,IF(E21=J25,K25,"Excedido"))))))),P21)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R21" s="9">
         <f t="shared" si="0"/>
@@ -6200,13 +6209,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T21" t="e">
+      <c r="T21">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U21" t="e">
+        <v>2</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -6220,41 +6229,39 @@
         <f>Bienes!C22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I22" s="3">
+        <v>18</v>
       </c>
       <c r="J22" s="3">
         <f>AcuerdoServicio!A22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L22" s="3" t="e">
+      <c r="K22" s="3">
+        <v>18</v>
+      </c>
+      <c r="L22" s="3">
         <f>IF(D22=H4,I4,IF(D22=H5,I5,IF(D22=H6,I6,IF(D22=H7,I7,IF(D22=H8,I8,IF(D22=H9,I9,IF(D22=H10,I10,IF(D22=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M22" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M22" s="3">
         <f>IF(L22="Excedido",IF(D22=H12,I12,IF(D22=H13,I13,IF(D22=H14,I14,IF(D22=H15,I15,IF(D22=H16,I16,IF(D22=H17,I17,IF(D22=H18:H18,I18,"Excedido"))))))),L22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N22" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N22" s="3">
         <f>IF(M22="Excedido",IF(D22=H19,I19,IF(D22=H20,I20,IF(D22=H21,I21,IF(D22=H22,I22,IF(D22=H23,I23,IF(D22=H24,I24,IF(D22=H25,I25,"Excedido"))))))),M22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O22" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O22" s="3">
         <f>IF(E22=J4,K4,IF(E22=J5,K5,IF(E22=J6,K6,IF(E22=J7,K7,IF(E22=J8,K8,IF(E22=J9,K9,IF(E22=J10,K10,IF(E22=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P22" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P22" s="3">
         <f>IF(O22="Excedido",IF(E22=J12,K12,IF(E22=J13,K13,IF(E22=J14,K14,IF(E22=J15,K15,IF(E22=J16,K16,IF(E22=J17,K17,IF(E22=J18:J18,K18,"Excedido"))))))),O22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q22" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="69">
         <f>IF(P22="Excedido",IF(E22=J19,K19,IF(E22=J20,K20,IF(E22=J21,K21,IF(E22=J22,K22,IF(E22=J23,K23,IF(E22=J24,K24,IF(E22=J25,K25,"Excedido"))))))),P22)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" si="0"/>
@@ -6264,13 +6271,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T22" t="e">
+      <c r="T22">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U22" t="e">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -6284,41 +6291,39 @@
         <f>Bienes!C23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I23" s="3">
+        <v>19</v>
       </c>
       <c r="J23" s="3">
         <f>AcuerdoServicio!A23</f>
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L23" s="3" t="e">
+      <c r="K23" s="3">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3">
         <f>IF(D23=H4,I4,IF(D23=H5,I5,IF(D23=H6,I6,IF(D23=H7,I7,IF(D23=H8,I8,IF(D23=H9,I9,IF(D23=H10,I10,IF(D23=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M23" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M23" s="3">
         <f>IF(L23="Excedido",IF(D23=H12,I12,IF(D23=H13,I13,IF(D23=H14,I14,IF(D23=H15,I15,IF(D23=H16,I16,IF(D23=H17,I17,IF(D23=H18:H18,I18,"Excedido"))))))),L23)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N23" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N23" s="3">
         <f>IF(M23="Excedido",IF(D23=H19,I19,IF(D23=H20,I20,IF(D23=H21,I21,IF(D23=H22,I22,IF(D23=H23,I23,IF(D23=H24,I24,IF(D23=H25,I25,"Excedido"))))))),M23)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O23" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3">
         <f>IF(E23=J4,K4,IF(E23=J5,K5,IF(E23=J6,K6,IF(E23=J7,K7,IF(E23=J8,K8,IF(E23=J9,K9,IF(E23=J10,K10,IF(E23=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P23" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P23" s="3">
         <f>IF(O23="Excedido",IF(E23=J12,K12,IF(E23=J13,K13,IF(E23=J14,K14,IF(E23=J15,K15,IF(E23=J16,K16,IF(E23=J17,K17,IF(E23=J18:J18,K18,"Excedido"))))))),O23)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q23" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="69">
         <f>IF(P23="Excedido",IF(E23=J19,K19,IF(E23=J20,K20,IF(E23=J21,K21,IF(E23=J22,K22,IF(E23=J23,K23,IF(E23=J24,K24,IF(E23=J25,K25,"Excedido"))))))),P23)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R23" s="9">
         <f t="shared" si="0"/>
@@ -6328,13 +6333,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T23" t="e">
+      <c r="T23">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U23" t="e">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -6348,41 +6353,39 @@
         <f>Bienes!C24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I24" s="3">
+        <v>20</v>
       </c>
       <c r="J24" s="3">
         <f>AcuerdoServicio!A24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L24" s="3" t="e">
+      <c r="K24" s="3">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3">
         <f>IF(D24=H4,I4,IF(D24=H5,I5,IF(D24=H6,I6,IF(D24=H7,I7,IF(D24=H8,I8,IF(D24=H9,I9,IF(D24=H10,I10,IF(D24=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M24" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3">
         <f>IF(L24="Excedido",IF(D24=H12,I12,IF(D24=H13,I13,IF(D24=H14,I14,IF(D24=H15,I15,IF(D24=H16,I16,IF(D24=H17,I17,IF(D24=H18:H18,I18,"Excedido"))))))),L24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N24" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="N24" s="3">
         <f>IF(M24="Excedido",IF(D24=H19,I19,IF(D24=H20,I20,IF(D24=H21,I21,IF(D24=H22,I22,IF(D24=H23,I23,IF(D24=H24,I24,IF(D24=H25,I25,"Excedido"))))))),M24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O24" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3">
         <f>IF(E24=J4,K4,IF(E24=J5,K5,IF(E24=J6,K6,IF(E24=J7,K7,IF(E24=J8,K8,IF(E24=J9,K9,IF(E24=J10,K10,IF(E24=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P24" s="3" t="e">
+        <v>2</v>
+      </c>
+      <c r="P24" s="3">
         <f>IF(O24="Excedido",IF(E24=J12,K12,IF(E24=J13,K13,IF(E24=J14,K14,IF(E24=J15,K15,IF(E24=J16,K16,IF(E24=J17,K17,IF(E24=J18:J18,K18,"Excedido"))))))),O24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q24" s="69" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="69">
         <f>IF(P24="Excedido",IF(E24=J19,K19,IF(E24=J20,K20,IF(E24=J21,K21,IF(E24=J22,K22,IF(E24=J23,K23,IF(E24=J24,K24,IF(E24=J25,K25,"Excedido"))))))),P24)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R24" s="9">
         <f t="shared" si="0"/>
@@ -6392,13 +6395,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T24" t="e">
+      <c r="T24">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U24" t="e">
+        <v>2</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6412,41 +6415,39 @@
         <f>Bienes!C25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="12" t="e">
-        <f>Bienes!#REF!</f>
-        <v>#REF!</v>
+      <c r="I25" s="3">
+        <v>21</v>
       </c>
       <c r="J25" s="12">
         <f>AcuerdoServicio!A25</f>
         <v>0</v>
       </c>
-      <c r="K25" s="12" t="e">
-        <f>AcuerdoServicio!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L25" s="12" t="e">
+      <c r="K25" s="3">
+        <v>21</v>
+      </c>
+      <c r="L25" s="12">
         <f>IF(D25=H4,I4,IF(D25=H5,I5,IF(D25=H6,I6,IF(D25=H7,I7,IF(D25=H8,I8,IF(D25=H9,I9,IF(D25=H10,I10,IF(D25=H11,I11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M25" s="12" t="e">
+        <v>2</v>
+      </c>
+      <c r="M25" s="12">
         <f>IF(L25="Excedido",IF(D25=H12,I12,IF(D25=H13,I13,IF(D25=H14,I14,IF(D25=H15,I15,IF(D25=H16,I16,IF(D25=H17,I17,IF(D25=H18:H18,I18,"Excedido"))))))),L25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N25" s="12" t="e">
+        <v>2</v>
+      </c>
+      <c r="N25" s="12">
         <f>IF(M25="Excedido",IF(D25=H19,I19,IF(D25=H20,I20,IF(D25=H21,I21,IF(D25=H22,I22,IF(D25=H23,I23,IF(D25=H24,I24,IF(D25=H25,I25,"Excedido"))))))),M25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O25" s="12" t="e">
+        <v>2</v>
+      </c>
+      <c r="O25" s="12">
         <f>IF(E25=J4,K4,IF(E25=J5,K5,IF(E25=J6,K6,IF(E25=J7,K7,IF(E25=J8,K8,IF(E25=J9,K9,IF(E25=J10,K10,IF(E25=J11,K11,"Excedido"))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P25" s="12" t="e">
+        <v>2</v>
+      </c>
+      <c r="P25" s="12">
         <f>IF(O25="Excedido",IF(E25=J12,K12,IF(E25=J13,K13,IF(E25=J14,K14,IF(E25=J15,K15,IF(E25=J16,K16,IF(E25=J17,K17,IF(E25=J18:J18,K18,"Excedido"))))))),O25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q25" s="78" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="78">
         <f>IF(P25="Excedido",IF(E25=J19,K19,IF(E25=J20,K20,IF(E25=J21,K21,IF(E25=J22,K22,IF(E25=J23,K23,IF(E25=J24,K24,IF(E25=J25,K25,"Excedido"))))))),P25)</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
       <c r="R25" s="11">
         <f t="shared" si="0"/>
@@ -6456,13 +6457,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T25" t="e">
+      <c r="T25">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U25" t="e">
+        <v>2</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6503,7 +6504,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6625,49 +6626,105 @@
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
+      <c r="A4" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="25">
+        <v>12.5</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="26">
+        <v>12</v>
+      </c>
+      <c r="I4" s="27">
+        <v>10</v>
+      </c>
+      <c r="J4" s="26">
+        <v>24</v>
+      </c>
+      <c r="K4" s="27">
+        <v>13</v>
+      </c>
+      <c r="L4" s="26">
+        <v>36</v>
+      </c>
+      <c r="M4" s="27">
+        <v>15</v>
+      </c>
+      <c r="N4" s="28">
+        <v>10</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="11">
         <f>IF(G4="TCC",1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="39">
         <f>COUNTA(A3:A25)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
+      <c r="A5" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="25">
+        <v>13.5</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="26">
+        <v>12</v>
+      </c>
+      <c r="I5" s="27">
+        <v>10</v>
+      </c>
+      <c r="J5" s="26">
+        <v>24</v>
+      </c>
+      <c r="K5" s="27">
+        <v>13</v>
+      </c>
+      <c r="L5" s="26">
+        <v>36</v>
+      </c>
+      <c r="M5" s="27">
+        <v>15</v>
+      </c>
+      <c r="N5" s="28">
+        <v>10</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="11">
         <f t="shared" ref="P5:P22" si="0">IF(G5="TCC",1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7087,7 +7144,7 @@
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor incorrecto" error="El valor del interés debe ser decimal mayor a 0.0" promptTitle="Intereses de la 1º Vida Media" prompt="Ingrese el valor del Interés de la 1º Vida Media" sqref="I4:I22">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor incorrecto" error="La vida media debe ser el valor numérico que represente la cantidad de meses deseados. Y debe ser mayor a la primer Vida Media" promptTitle="Segunda Vida Media" prompt="Ingrese la segunda Vida Media deseada (debe expresarse en cantidad de meses), debe ser mayor a la primer Vida Media" sqref="L4:L22 J4:J22">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor incorrecto" error="La vida media debe ser el valor numérico que represente la cantidad de meses deseados. Y debe ser mayor a la primer Vida Media" promptTitle="Segunda Vida Media" prompt="Ingrese la segunda Vida Media deseada (debe expresarse en cantidad de meses), debe ser mayor a la primer Vida Media" sqref="J4:J22 L4:L22">
       <formula1>H4</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor incorrecto" error="El valor del interés debe ser decimal mayor a 0.0. Y debe ser mayor al interés de la primer vida media" promptTitle="Intereses de la 2º Vida Media" prompt="Ingrese el valor del Interés de la 2º Vida Media, debe ser mayor al interés de la primer vida media" sqref="K4:K22">
@@ -7116,7 +7173,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -7194,19 +7251,29 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="23">
+        <v>15</v>
+      </c>
+      <c r="D4" s="27">
+        <v>5</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>144</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="9">
         <f>COUNTA(A3:A24)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="e">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <f>MATCH(A4,K4:K27,0)</f>
-        <v>#N/A</v>
+        <v>8</v>
       </c>
       <c r="I4" s="3">
         <f>IF(B4="TCC",1,2)</f>

--- a/target/classes/testData/TestData.xlsx
+++ b/target/classes/testData/TestData.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
   <si>
     <t>Nombre SubTasa</t>
   </si>
@@ -388,48 +388,9 @@
     <t>seleccionAcuerdo</t>
   </si>
   <si>
-    <t>RN256</t>
-  </si>
-  <si>
-    <t>DescripcionRN256</t>
-  </si>
-  <si>
-    <t>ClaseRN256</t>
-  </si>
-  <si>
-    <t>SubClaseRN256</t>
-  </si>
-  <si>
-    <t>MarcaRN256</t>
-  </si>
-  <si>
-    <t>ModeloRN256</t>
-  </si>
-  <si>
-    <t>ProvRN256</t>
-  </si>
-  <si>
-    <t>AcuerdoRN256</t>
-  </si>
-  <si>
     <t>RN257</t>
   </si>
   <si>
-    <t>DescripcionRN257</t>
-  </si>
-  <si>
-    <t>ClaseRN257</t>
-  </si>
-  <si>
-    <t>SubClaseRN257</t>
-  </si>
-  <si>
-    <t>MarcaRN257</t>
-  </si>
-  <si>
-    <t>ModeloRN257</t>
-  </si>
-  <si>
     <t>ProvRN257</t>
   </si>
   <si>
@@ -442,9 +403,6 @@
     <t>BC</t>
   </si>
   <si>
-    <t>ServicioRN256</t>
-  </si>
-  <si>
     <t>ServicioRN257</t>
   </si>
   <si>
@@ -461,6 +419,138 @@
   </si>
   <si>
     <t>Canon Inicial</t>
+  </si>
+  <si>
+    <t>10 - Equipos de computación e informática</t>
+  </si>
+  <si>
+    <t>11 - Equipos y maquinarias de arrastre</t>
+  </si>
+  <si>
+    <t>12 - Equipos-aparatos e instrumental de precisión</t>
+  </si>
+  <si>
+    <t>13 - Equipos-aparatos e instrumental</t>
+  </si>
+  <si>
+    <t>14 - Ferrocarriles</t>
+  </si>
+  <si>
+    <t>15 - Galpones</t>
+  </si>
+  <si>
+    <t>16 - Hacienda reproductora</t>
+  </si>
+  <si>
+    <t>17 - Herramientas</t>
+  </si>
+  <si>
+    <t>18 - Instalaciones</t>
+  </si>
+  <si>
+    <t>19 - Maquinarias</t>
+  </si>
+  <si>
+    <t>20 - Molinos</t>
+  </si>
+  <si>
+    <t>21 - Muebles y utiles</t>
+  </si>
+  <si>
+    <t>22 - Pulverizadoras motopropulsadas</t>
+  </si>
+  <si>
+    <t>25 - Silos</t>
+  </si>
+  <si>
+    <t>26 - Tarros tambo</t>
+  </si>
+  <si>
+    <t>27 - Tractores</t>
+  </si>
+  <si>
+    <t>28 - Software</t>
+  </si>
+  <si>
+    <t>Valores Tipificación</t>
+  </si>
+  <si>
+    <t>Tipo de Bien</t>
+  </si>
+  <si>
+    <t>Tipificación</t>
+  </si>
+  <si>
+    <t>Idtipificación</t>
+  </si>
+  <si>
+    <t>24 - Rotoenfardadoras</t>
+  </si>
+  <si>
+    <t>23 - Rodados</t>
+  </si>
+  <si>
+    <t>VidaUtil</t>
+  </si>
+  <si>
+    <t>VUcorrespondiente</t>
+  </si>
+  <si>
+    <t>1 - Aerodinos en general</t>
+  </si>
+  <si>
+    <t>2 - Aguadas y bebederos</t>
+  </si>
+  <si>
+    <t>3 - Alambradas y tranqueras</t>
+  </si>
+  <si>
+    <t>4 - Barcos</t>
+  </si>
+  <si>
+    <t>5 - Contenedores</t>
+  </si>
+  <si>
+    <t>6 - Contenedores-excepto silos</t>
+  </si>
+  <si>
+    <t>7 - Cosechadoras</t>
+  </si>
+  <si>
+    <t>8 - Edificios</t>
+  </si>
+  <si>
+    <t>9 - Embarcaciones de recreo</t>
+  </si>
+  <si>
+    <t>RN260</t>
+  </si>
+  <si>
+    <t>ProvRN260</t>
+  </si>
+  <si>
+    <t>AcuerdoRN260</t>
+  </si>
+  <si>
+    <t>ServicioRN260</t>
+  </si>
+  <si>
+    <t>RNIII</t>
+  </si>
+  <si>
+    <t>DescripcionRNIII</t>
+  </si>
+  <si>
+    <t>ClaseRNIII</t>
+  </si>
+  <si>
+    <t>SubClaseRNIII</t>
+  </si>
+  <si>
+    <t>MarcaRNIII</t>
+  </si>
+  <si>
+    <t>ModeloRNIII</t>
   </si>
 </sst>
 </file>
@@ -529,7 +619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,8 +680,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1240,23 +1336,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1316,8 +1458,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1354,13 +1494,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1472,7 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1481,10 +1637,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1501,9 +1663,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1830,6 +1989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1847,53 +2007,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="143"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="131"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
@@ -1907,14 +2067,14 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133" t="s">
+      <c r="B7" s="147"/>
+      <c r="C7" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="133"/>
+      <c r="D7" s="147"/>
       <c r="E7" s="54" t="s">
         <v>86</v>
       </c>
@@ -1922,146 +2082,146 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121" t="s">
+      <c r="B8" s="134"/>
+      <c r="C8" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="123" t="s">
+      <c r="D8" s="135"/>
+      <c r="E8" s="137" t="s">
         <v>98</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="99"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="132" t="s">
+      <c r="B10" s="123"/>
+      <c r="C10" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="98" t="s">
+      <c r="D10" s="146"/>
+      <c r="E10" s="112" t="s">
         <v>98</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="98"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="116" t="s">
+      <c r="B12" s="132"/>
+      <c r="C12" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="99" t="s">
+      <c r="D12" s="130"/>
+      <c r="E12" s="113" t="s">
         <v>98</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="99"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="107" t="s">
+      <c r="B14" s="123"/>
+      <c r="C14" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="98" t="s">
+      <c r="D14" s="121"/>
+      <c r="E14" s="112" t="s">
         <v>98</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="112"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="112" t="s">
+      <c r="B16" s="125"/>
+      <c r="C16" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="99" t="s">
+      <c r="D16" s="126"/>
+      <c r="E16" s="113" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="99"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="113"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="107" t="s">
+      <c r="B18" s="123"/>
+      <c r="C18" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="98" t="s">
+      <c r="D18" s="121"/>
+      <c r="E18" s="112" t="s">
         <v>99</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="100"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
@@ -2123,13 +2283,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU27"/>
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:IZ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2142,44 +2303,57 @@
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="250" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="251" max="251" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="252" max="252" width="0.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="253" max="255" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="256" max="256" width="0.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="257" max="16384" width="0.140625" hidden="1" collapsed="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="246" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="247" max="247" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="248" max="248" width="0.140625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="249" max="251" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="252" max="253" width="0.140625" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="254" max="260" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="261" max="16384" width="0.140625" hidden="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="135" t="s">
+    <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="138" t="s">
+      <c r="B1" s="150"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="138" t="s">
+      <c r="E1" s="154"/>
+      <c r="F1" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="139"/>
-      <c r="H1" s="138" t="s">
+      <c r="G1" s="154"/>
+      <c r="H1" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="138" t="s">
+      <c r="I1" s="154"/>
+      <c r="J1" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="139"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="93" t="s">
+      <c r="K1" s="155"/>
+      <c r="L1" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="149" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="151"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>27</v>
       </c>
@@ -2210,106 +2384,136 @@
       <c r="J2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="94" t="s">
+      <c r="L2" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="99" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="5.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="95"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="P2" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="110"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="40">
+        <v>174</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="100">
         <f>COUNTA(D3:D24)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O4" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="3" t="str">
+        <f>LEFT(L4, SEARCH(" ",L4,1))</f>
+        <v xml:space="preserve">28 </v>
+      </c>
+      <c r="Q4" s="3">
+        <v>60</v>
+      </c>
+      <c r="R4" s="10">
+        <f>IF(L4=O4,Q4,IF(L4=O5,Q5,IF(L4=O6,Q6,IF(L4=O7,Q7,IF(L4=O8,Q8,IF(L4=O9,Q9,IF(L4=O10,Q10,IF(L4=O11,Q11,IF(L4=O12,Q12,IF(L4=O13,Q13,IF(L4=O14,Q14,IF(L4=O15,Q15,IF(L4=O16,Q16,IF(L4=O17,Q17,IF(L4=O18,Q18,IF(L4=O19,Q19,IF(L4=O20,Q20,IF(L4=O21,Q21,IF(L4=O22,Q22,IF(L4=O23,Q23,IF(L4=O24,Q24,IF(L4=O25,Q25,IF(L4=O26,Q26,IF(L4=O27,Q27,IF(L4=O28,Q28,IF(L4=O29,Q29,IF(L4=O30,Q30,IF(L4=O31,Q31,"SinSeleccion"))))))))))))))))))))))))))))</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="6"/>
+      <c r="O5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="3" t="e">
+        <f t="shared" ref="P5:P25" si="0">LEFT(L5, SEARCH(" ",L5,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>240</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" ref="R5:R31" si="1">IF(L5=O5,Q5,IF(L5=O6,Q6,IF(L5=O7,Q7,IF(L5=O8,Q8,IF(L5=O9,Q9,IF(L5=O10,Q10,IF(L5=O11,Q11,IF(L5=O12,Q12,IF(L5=O13,Q13,IF(L5=O14,Q14,IF(L5=O15,Q15,IF(L5=O16,Q16,IF(L5=O17,Q17,IF(L5=O18,Q18,IF(L5=O19,Q19,IF(L5=O20,Q20,IF(L5=O21,Q21,IF(L5=O22,Q22,IF(L5=O23,Q23,IF(L5=O24,Q24,IF(L5=O25,Q25,IF(L5=O26,Q26,IF(L5=O27,Q27,IF(L5=O28,Q28,IF(L5=O29,Q29,IF(L5=O30,Q30,IF(L5=O31,Q31,IF(L5=O32,Q32,"SinSeleccion"))))))))))))))))))))))))))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="36"/>
       <c r="C6" s="24"/>
@@ -2320,10 +2524,25 @@
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
       <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="95"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="6"/>
+      <c r="O6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="P6" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>360</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="36"/>
       <c r="C7" s="24"/>
@@ -2334,10 +2553,25 @@
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
       <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P7" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>180</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="36"/>
       <c r="C8" s="24"/>
@@ -2348,10 +2582,25 @@
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
       <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="95"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="P8" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>120</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="36"/>
       <c r="C9" s="24"/>
@@ -2362,10 +2611,25 @@
       <c r="H9" s="33"/>
       <c r="I9" s="34"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="6"/>
+      <c r="O9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P9" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>96</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="36"/>
       <c r="C10" s="24"/>
@@ -2376,10 +2640,25 @@
       <c r="H10" s="33"/>
       <c r="I10" s="34"/>
       <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="95"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>96</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="36"/>
       <c r="C11" s="24"/>
@@ -2390,10 +2669,25 @@
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
       <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="P11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>600</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="36"/>
       <c r="C12" s="24"/>
@@ -2404,10 +2698,25 @@
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
       <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="95"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>96</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="36"/>
       <c r="C13" s="24"/>
@@ -2418,10 +2727,25 @@
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
       <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>36</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="36"/>
       <c r="C14" s="24"/>
@@ -2432,10 +2756,25 @@
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
       <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="95"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="6"/>
+      <c r="O14" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>96</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="36"/>
       <c r="C15" s="24"/>
@@ -2446,10 +2785,25 @@
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
       <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="6"/>
+      <c r="O15" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>60</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="36"/>
       <c r="C16" s="24"/>
@@ -2460,10 +2814,25 @@
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
       <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="95"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="6"/>
+      <c r="O16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>96</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="14"/>
       <c r="C17" s="24"/>
@@ -2474,10 +2843,25 @@
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
       <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K17" s="95"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="6"/>
+      <c r="O17" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>120</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="14"/>
       <c r="C18" s="24"/>
@@ -2488,10 +2872,25 @@
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K18" s="95"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="6"/>
+      <c r="O18" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>240</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="14"/>
       <c r="C19" s="24"/>
@@ -2502,10 +2901,25 @@
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
       <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="6"/>
+      <c r="O19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>60</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="14"/>
       <c r="C20" s="24"/>
@@ -2516,10 +2930,25 @@
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
       <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="95"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="6"/>
+      <c r="O20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>36</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="14"/>
       <c r="C21" s="24"/>
@@ -2530,10 +2959,25 @@
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
       <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="95"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="6"/>
+      <c r="O21" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>120</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="14"/>
       <c r="C22" s="24"/>
@@ -2544,10 +2988,25 @@
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
       <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="95"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="6"/>
+      <c r="O22" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>120</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="14"/>
       <c r="C23" s="24"/>
@@ -2558,10 +3017,25 @@
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
       <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K23" s="95"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="6"/>
+      <c r="O23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>240</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="14"/>
       <c r="C24" s="24"/>
@@ -2572,10 +3046,25 @@
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="95"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="6"/>
+      <c r="O24" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>120</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="37"/>
       <c r="C25" s="24"/>
@@ -2586,10 +3075,25 @@
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="95"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="6"/>
+      <c r="O25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>96</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2601,8 +3105,20 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="6"/>
+      <c r="O26" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="3">
+        <v>60</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2614,18 +3130,87 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="O27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="3">
+        <v>72</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="3">
+        <v>240</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="3">
+        <v>60</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="3">
+        <v>96</v>
+      </c>
+      <c r="R30" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O31" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="12">
+        <v>36</v>
+      </c>
+      <c r="R31" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <dataConsolidate/>
+  <mergeCells count="6">
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:K3">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:L3">
       <formula1>"nada"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L25">
+      <formula1>$O$4:$O$31</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2635,6 +3220,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2659,26 +3245,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2709,24 +3295,24 @@
       <c r="J2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="141" t="s">
+      <c r="K2" s="157" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
       <c r="P2" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="6"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2740,7 +3326,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -2758,7 +3344,7 @@
         <v>40</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="66" t="str">
+      <c r="H4" s="64" t="str">
         <f>IF(D4="false","false",(IF(F4="false","false","true")))</f>
         <v>false</v>
       </c>
@@ -2775,7 +3361,7 @@
       </c>
       <c r="L4" s="3" t="str">
         <f>A4</f>
-        <v>ProvRN256</v>
+        <v>ProvRN260</v>
       </c>
       <c r="M4" s="3">
         <f>IF(N4="","",K4)</f>
@@ -2783,7 +3369,7 @@
       </c>
       <c r="N4" s="3" t="str">
         <f>IF(N(COUNTIF(D4:D4,"true")=1),A4,"")</f>
-        <v>ProvRN256</v>
+        <v>ProvRN260</v>
       </c>
       <c r="O4" s="3">
         <f>IFERROR(SMALL($M$4:$M$27,K4),"")</f>
@@ -2791,12 +3377,12 @@
       </c>
       <c r="P4" s="3" t="str">
         <f>IFERROR(VLOOKUP(O4,$K$4:$L$27,2,FALSE),"")</f>
-        <v>ProvRN256</v>
+        <v>ProvRN260</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -2814,7 +3400,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="41"/>
-      <c r="H5" s="66" t="str">
+      <c r="H5" s="64" t="str">
         <f t="shared" ref="H5:H25" si="0">IF(D5="false","false",(IF(F5="false","false","true")))</f>
         <v>false</v>
       </c>
@@ -2822,7 +3408,7 @@
         <f t="shared" ref="I5:I25" si="1">IF(B5="true","false",(IF(C5="false","false","true")))</f>
         <v>false</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="3">
         <v>2</v>
       </c>
@@ -2855,7 +3441,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="66" t="str">
+      <c r="H6" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -2863,7 +3449,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J6" s="68"/>
+      <c r="J6" s="66"/>
       <c r="K6" s="3">
         <v>3</v>
       </c>
@@ -2896,7 +3482,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="66" t="str">
+      <c r="H7" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -2904,7 +3490,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J7" s="68"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="3">
         <v>4</v>
       </c>
@@ -2937,7 +3523,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="66" t="str">
+      <c r="H8" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -2945,7 +3531,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J8" s="68"/>
+      <c r="J8" s="66"/>
       <c r="K8" s="3">
         <v>5</v>
       </c>
@@ -2978,7 +3564,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="66" t="str">
+      <c r="H9" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -2986,7 +3572,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J9" s="68"/>
+      <c r="J9" s="66"/>
       <c r="K9" s="3">
         <v>6</v>
       </c>
@@ -3019,7 +3605,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="66" t="str">
+      <c r="H10" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3027,7 +3613,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J10" s="68"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="3">
         <v>7</v>
       </c>
@@ -3060,7 +3646,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="66" t="str">
+      <c r="H11" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3068,7 +3654,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="3">
         <v>8</v>
       </c>
@@ -3101,7 +3687,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="66" t="str">
+      <c r="H12" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3109,7 +3695,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J12" s="68"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="3">
         <v>9</v>
       </c>
@@ -3142,7 +3728,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="66" t="str">
+      <c r="H13" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3150,7 +3736,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J13" s="68"/>
+      <c r="J13" s="66"/>
       <c r="K13" s="3">
         <v>10</v>
       </c>
@@ -3183,7 +3769,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="66" t="str">
+      <c r="H14" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3191,7 +3777,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J14" s="68"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="3">
         <v>11</v>
       </c>
@@ -3224,7 +3810,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="66" t="str">
+      <c r="H15" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3232,7 +3818,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="3">
         <v>12</v>
       </c>
@@ -3265,7 +3851,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="66" t="str">
+      <c r="H16" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3273,7 +3859,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J16" s="68"/>
+      <c r="J16" s="66"/>
       <c r="K16" s="3">
         <v>13</v>
       </c>
@@ -3306,7 +3892,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="66" t="str">
+      <c r="H17" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3314,7 +3900,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J17" s="68"/>
+      <c r="J17" s="66"/>
       <c r="K17" s="3">
         <v>14</v>
       </c>
@@ -3347,7 +3933,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="66" t="str">
+      <c r="H18" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3355,7 +3941,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J18" s="68"/>
+      <c r="J18" s="66"/>
       <c r="K18" s="3">
         <v>15</v>
       </c>
@@ -3388,7 +3974,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="66" t="str">
+      <c r="H19" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3396,7 +3982,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J19" s="68"/>
+      <c r="J19" s="66"/>
       <c r="K19" s="3">
         <v>16</v>
       </c>
@@ -3429,7 +4015,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="66" t="str">
+      <c r="H20" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3437,7 +4023,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J20" s="68"/>
+      <c r="J20" s="66"/>
       <c r="K20" s="3">
         <v>17</v>
       </c>
@@ -3470,7 +4056,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="66" t="str">
+      <c r="H21" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3478,7 +4064,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J21" s="68"/>
+      <c r="J21" s="66"/>
       <c r="K21" s="3">
         <v>18</v>
       </c>
@@ -3511,7 +4097,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="66" t="str">
+      <c r="H22" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3519,7 +4105,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J22" s="68"/>
+      <c r="J22" s="66"/>
       <c r="K22" s="3">
         <v>19</v>
       </c>
@@ -3552,7 +4138,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="66" t="str">
+      <c r="H23" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3560,7 +4146,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J23" s="68"/>
+      <c r="J23" s="66"/>
       <c r="K23" s="3">
         <v>20</v>
       </c>
@@ -3593,7 +4179,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="66" t="str">
+      <c r="H24" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3601,7 +4187,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J24" s="68"/>
+      <c r="J24" s="66"/>
       <c r="K24" s="3">
         <v>21</v>
       </c>
@@ -3634,7 +4220,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="66" t="str">
+      <c r="H25" s="64" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
@@ -3642,7 +4228,7 @@
         <f t="shared" si="1"/>
         <v>true</v>
       </c>
-      <c r="J25" s="68"/>
+      <c r="J25" s="66"/>
       <c r="K25" s="3">
         <v>22</v>
       </c>
@@ -3708,6 +4294,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3734,28 +4321,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="160"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="145" t="s">
+      <c r="H1" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -3777,55 +4364,55 @@
         <v>41</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="75">
-        <v>1</v>
-      </c>
-      <c r="L2" s="75">
-        <v>2</v>
-      </c>
-      <c r="M2" s="76" t="s">
+      <c r="K2" s="73">
+        <v>1</v>
+      </c>
+      <c r="L2" s="73">
+        <v>2</v>
+      </c>
+      <c r="M2" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="74" t="s">
+      <c r="O2" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="P2" s="75">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="75">
-        <v>2</v>
-      </c>
-      <c r="R2" s="76" t="s">
+      <c r="P2" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="73">
+        <v>2</v>
+      </c>
+      <c r="R2" s="74" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
       <c r="J3" s="22"/>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="24"/>
-      <c r="N3" s="72"/>
+      <c r="N3" s="70"/>
       <c r="O3" s="22"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
@@ -3833,7 +4420,7 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="B4" s="27">
         <v>500</v>
@@ -3842,61 +4429,61 @@
         <v>200.5</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="40">
         <f>COUNTA(A3:A24)</f>
         <v>2</v>
       </c>
-      <c r="I4" s="70" t="str">
+      <c r="I4" s="68" t="str">
         <f>Bienes!C4</f>
-        <v>RN256</v>
-      </c>
-      <c r="J4" s="92">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
+        <v>RNIII</v>
+      </c>
+      <c r="J4" s="90">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="str">
         <f>IF(E4=I4,J4,IF(E4=I5,J5,IF(E4=I6,J6,IF(E4=I7,J7,IF(E4=I8,J8,IF(E4=I9,J9,IF(E4=I10,J10,IF(E4=I11,J11,"Excedido"))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
+        <v>Excedido</v>
+      </c>
+      <c r="L4" s="3" t="str">
         <f>IF(K4="Excedido",IF(E4=I12,J12,IF(E4=I13,J13,IF(E4=I14,J14,IF(E4=I15,J15,IF(E4=I16,J16,IF(E4=I17,J17,IF(E4=I18:I18,J18,"Excedido"))))))),K4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="96">
+        <v>Excedido</v>
+      </c>
+      <c r="M4" s="91" t="str">
         <f>IF(L4="Excedido",IF(E4=I19,J19,IF(E4=I20,J20,IF(E4=I21,J21,IF(E4=I22,J22,IF(E4=I23,J23,IF(E4=I24,J24,IF(E4=I25:I25,J25,"Excedido"))))))),L4)</f>
-        <v>0</v>
+        <v>Excedido</v>
       </c>
       <c r="N4" s="16" t="str">
         <f>Proveedor!P3:P25</f>
-        <v>ProvRN256</v>
-      </c>
-      <c r="O4" s="92">
-        <v>0</v>
-      </c>
-      <c r="P4" s="97">
+        <v>ProvRN260</v>
+      </c>
+      <c r="O4" s="90">
+        <v>0</v>
+      </c>
+      <c r="P4" s="92">
         <f>IF(F4=N4,O4,IF(F4=N5,O5,IF(F4=N6,O6,IF(F4=N7,O7,IF(F4=N8,O8,IF(F4=N9,O9,IF(F4=N10,O10,IF(F4=N11,O11,"Excedido"))))))))</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="97">
+      <c r="Q4" s="92">
         <f>IF(P4="Excedido",IF(F4=N12,O12,IF(F4=N13,O13,IF(F4=N14,O14,IF(F4=N15,O15,IF(F4=N16,O16,IF(F4=N17,O17,IF(F4=N18:N18,O18,"Excedido"))))))),P4)</f>
         <v>1</v>
       </c>
-      <c r="R4" s="96">
+      <c r="R4" s="91">
         <f>IF(Q4="Excedido",IF(F4=N19,O19,IF(F4=N20,O20,IF(F4=N21,O21,IF(F4=N22,O22,IF(F4=N23,O23,IF(F4=N24,O24,IF(F4=N25,O25,"Excedido"))))))),Q4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B5" s="27">
         <v>500</v>
@@ -3905,50 +4492,50 @@
         <v>200.5</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="I5" s="70" t="str">
+      <c r="I5" s="68">
         <f>Bienes!C5</f>
-        <v>RN257</v>
-      </c>
-      <c r="J5" s="92">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="90">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="str">
         <f>IF(E5=I4,J4,IF(E5=I5,J5,IF(E5=I6,J6,IF(E5=I7,J7,IF(E5=I8,J8,IF(E5=I9,J9,IF(E5=I10,J10,IF(E5=I11,J11,"Excedido"))))))))</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
+        <v>Excedido</v>
+      </c>
+      <c r="L5" s="3" t="str">
         <f>IF(K5="Excedido",IF(E5=I12,J12,IF(E5=I13,J13,IF(E5=I14,J14,IF(E5=I15,J15,IF(E5=I16,J16,IF(E5=I17,J17,IF(E5=I18:I18,J18,"Excedido"))))))),K5)</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="96">
+        <v>Excedido</v>
+      </c>
+      <c r="M5" s="91" t="str">
         <f>IF(L5="Excedido",IF(E5=I19,J19,IF(E5=I20,J20,IF(E5=I21,J21,IF(E5=I22,J22,IF(E5=I23,J23,IF(E5=I24,J24,IF(E5=I25,J25,"Excedido"))))))),L5)</f>
-        <v>1</v>
+        <v>Excedido</v>
       </c>
       <c r="N5" s="16" t="str">
         <f>Proveedor!P4:P26</f>
         <v>ProvRN257</v>
       </c>
-      <c r="O5" s="92">
-        <v>1</v>
-      </c>
-      <c r="P5" s="97">
+      <c r="O5" s="90">
+        <v>1</v>
+      </c>
+      <c r="P5" s="92">
         <f>IF(F5=N4,O4,IF(F5=N5,O5,IF(F5=N6,O6,IF(F5=N7,O7,IF(F5=N8,O8,IF(F5=N9,O9,IF(F5=N10,O10,IF(F5=N11,O11,"Excedido"))))))))</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="97">
+      <c r="Q5" s="92">
         <f>IF(P5="Excedido",IF(F5=N12,O12,IF(F5=N13,O13,IF(F5=N14,O14,IF(F5=N15,O15,IF(F5=N16,O16,IF(F5=N17,O17,IF(F5=N18:N18,O18,"Excedido"))))))),P5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="96">
+      <c r="R5" s="91">
         <f>IF(Q5="Excedido",IF(F5=N19,O19,IF(F5=N20,O20,IF(F5=N21,O21,IF(F5=N22,O22,IF(F5=N23,O23,IF(F5=N24,O24,IF(F5=N25,O25,"Excedido"))))))),Q5)</f>
         <v>0</v>
       </c>
@@ -3961,41 +4548,41 @@
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
       <c r="G6" s="6"/>
-      <c r="I6" s="70">
+      <c r="I6" s="68">
         <f>Bienes!C6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="92">
+      <c r="J6" s="90">
         <v>2</v>
       </c>
       <c r="K6" s="3">
         <f>IF(E6=I4,J4,IF(E6=I5,J5,IF(E6=I6,J6,IF(E6=I7,J7,IF(E6=I8,J8,IF(E6=I9,J9,IF(E6=I10,J10,IF(E6=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="3">
         <f>IF(K6="Excedido",IF(E6=I12,J12,IF(E6=I13,J13,IF(E6=I14,J14,IF(E6=I15,J15,IF(E6=I16,J16,IF(E6=I17,J17,IF(E6=I18:I18,J18,"Excedido"))))))),K6)</f>
-        <v>2</v>
-      </c>
-      <c r="M6" s="96">
+        <v>1</v>
+      </c>
+      <c r="M6" s="91">
         <f>IF(L6="Excedido",IF(E6=I19,J19,IF(E6=I20,J20,IF(E6=I21,J21,IF(E6=I22,J22,IF(E6=I23,J23,IF(E6=I24,J24,IF(E6=I25,J25,"Excedido"))))))),L6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="16" t="str">
         <f>Proveedor!P5:P27</f>
         <v/>
       </c>
-      <c r="O6" s="92">
-        <v>2</v>
-      </c>
-      <c r="P6" s="97">
+      <c r="O6" s="90">
+        <v>2</v>
+      </c>
+      <c r="P6" s="92">
         <f>IF(F6=N4,O4,IF(F6=N5,O5,IF(F6=N6,O6,IF(F6=N7,O7,IF(F6=N8,O8,IF(F6=N9,O9,IF(F6=N10,O10,IF(F6=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q6" s="97">
+      <c r="Q6" s="92">
         <f>IF(P6="Excedido",IF(F6=N12,O12,IF(F6=N13,O13,IF(F6=N14,O14,IF(F6=N15,O15,IF(F6=N16,O16,IF(F6=N17,O17,IF(F6=N18:N18,O18,"Excedido"))))))),P6)</f>
         <v>2</v>
       </c>
-      <c r="R6" s="96">
+      <c r="R6" s="91">
         <f>IF(Q6="Excedido",IF(F6=N19,O19,IF(F6=N20,O20,IF(F6=N21,O21,IF(F6=N22,O22,IF(F6=N23,O23,IF(F6=N24,O24,IF(F6=N25,O25,"Excedido"))))))),Q6)</f>
         <v>2</v>
       </c>
@@ -4008,41 +4595,41 @@
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
       <c r="G7" s="6"/>
-      <c r="I7" s="70">
+      <c r="I7" s="68">
         <f>Bienes!C7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="92">
+      <c r="J7" s="90">
         <v>3</v>
       </c>
       <c r="K7" s="3">
         <f>IF(E7=I4,J4,IF(E7=I5,J5,IF(E7=I6,J6,IF(E7=I7,J7,IF(E7=I8,J8,IF(E7=I9,J9,IF(E7=I10,J10,IF(E7=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3">
         <f>IF(K7="Excedido",IF(E7=I12,J12,IF(E7=I13,J13,IF(E7=I14,J14,IF(E7=I15,J15,IF(E7=I16,J16,IF(E7=I17,J17,IF(E7=I18:I18,J18,"Excedido"))))))),K7)</f>
-        <v>2</v>
-      </c>
-      <c r="M7" s="96">
+        <v>1</v>
+      </c>
+      <c r="M7" s="91">
         <f>IF(L7="Excedido",IF(E7=I19,J19,IF(E7=I20,J20,IF(E7=I21,J21,IF(E7=I22,J22,IF(E7=I23,J23,IF(E7=I24,J24,IF(E7=I25,J25,"Excedido"))))))),L7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="16" t="str">
         <f>Proveedor!P6:P28</f>
         <v/>
       </c>
-      <c r="O7" s="92">
+      <c r="O7" s="90">
         <v>3</v>
       </c>
-      <c r="P7" s="97">
+      <c r="P7" s="92">
         <f>IF(F7=N4,O4,IF(F7=N5,O5,IF(F7=N6,O6,IF(F7=N7,O7,IF(F7=N8,O8,IF(F7=N9,O9,IF(F7=N10,O10,IF(F7=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="97">
+      <c r="Q7" s="92">
         <f>IF(P7="Excedido",IF(F7=N12,O12,IF(F7=N13,O13,IF(F7=N14,O14,IF(F7=N15,O15,IF(F7=N16,O16,IF(F7=N17,O17,IF(F7=N18:N18,O18,"Excedido"))))))),P7)</f>
         <v>2</v>
       </c>
-      <c r="R7" s="96">
+      <c r="R7" s="91">
         <f>IF(Q7="Excedido",IF(F7=N19,O19,IF(F7=N20,O20,IF(F7=N21,O21,IF(F7=N22,O22,IF(F7=N23,O23,IF(F7=N24,O24,IF(F7=N25,O25,"Excedido"))))))),Q7)</f>
         <v>2</v>
       </c>
@@ -4055,41 +4642,41 @@
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="70">
+      <c r="I8" s="68">
         <f>Bienes!C8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="92">
+      <c r="J8" s="90">
         <v>4</v>
       </c>
       <c r="K8" s="3">
         <f>IF(E8=I4,J4,IF(E8=I5,J5,IF(E8=I6,J6,IF(E8=I7,J7,IF(E8=I8,J8,IF(E8=I9,J9,IF(E8=I10,J10,IF(E8=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3">
         <f>IF(K8="Excedido",IF(E8=I12,J12,IF(E8=I13,J13,IF(E8=I14,J14,IF(E8=I15,J15,IF(E8=I16,J16,IF(E8=I17,J17,IF(E8=I18:I18,J18,"Excedido"))))))),K8)</f>
-        <v>2</v>
-      </c>
-      <c r="M8" s="96">
+        <v>1</v>
+      </c>
+      <c r="M8" s="91">
         <f>IF(L8="Excedido",IF(E8=I19,J19,IF(E8=I20,J20,IF(E8=I21,J21,IF(E8=I22,J22,IF(E8=I23,J23,IF(E8=I24,J24,IF(E8=I25,J25,"Excedido"))))))),L8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="16" t="str">
         <f>Proveedor!P7:P29</f>
         <v/>
       </c>
-      <c r="O8" s="92">
+      <c r="O8" s="90">
         <v>4</v>
       </c>
-      <c r="P8" s="97">
+      <c r="P8" s="92">
         <f>IF(F8=N4,O4,IF(F8=N5,O5,IF(F8=N6,O6,IF(F8=N7,O7,IF(F8=N8,O8,IF(F8=N9,O9,IF(F8=N10,O10,IF(F8=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q8" s="97">
+      <c r="Q8" s="92">
         <f>IF(P8="Excedido",IF(F8=N12,O12,IF(F8=N13,O13,IF(F8=N14,O14,IF(F8=N15,O15,IF(F8=N16,O16,IF(F8=N17,O17,IF(F8=N18:N18,O18,"Excedido"))))))),P8)</f>
         <v>2</v>
       </c>
-      <c r="R8" s="96">
+      <c r="R8" s="91">
         <f>IF(Q8="Excedido",IF(F8=N19,O19,IF(F8=N20,O20,IF(F8=N21,O21,IF(F8=N22,O22,IF(F8=N23,O23,IF(F8=N24,O24,IF(F8=N25,O25,"Excedido"))))))),Q8)</f>
         <v>2</v>
       </c>
@@ -4102,41 +4689,41 @@
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
       <c r="G9" s="6"/>
-      <c r="I9" s="70">
+      <c r="I9" s="68">
         <f>Bienes!C9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="90">
         <v>5</v>
       </c>
       <c r="K9" s="3">
         <f>IF(E9=I4,J4,IF(E9=I5,J5,IF(E9=I6,J6,IF(E9=I7,J7,IF(E9=I8,J8,IF(E9=I9,J9,IF(E9=I10,J10,IF(E9=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3">
         <f>IF(K9="Excedido",IF(E9=I12,J12,IF(E9=I13,J13,IF(E9=I14,J14,IF(E9=I15,J15,IF(E9=I16,J16,IF(E9=I17,J17,IF(E9=I18:I18,J18,"Excedido"))))))),K9)</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="96">
+        <v>1</v>
+      </c>
+      <c r="M9" s="91">
         <f>IF(L9="Excedido",IF(E9=I19,J19,IF(E9=I20,J20,IF(E9=I21,J21,IF(E9=I22,J22,IF(E9=I23,J23,IF(E9=I24,J24,IF(E9=I25,J25,"Excedido"))))))),L9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="16" t="str">
         <f>Proveedor!P8:P30</f>
         <v/>
       </c>
-      <c r="O9" s="92">
+      <c r="O9" s="90">
         <v>5</v>
       </c>
-      <c r="P9" s="97">
+      <c r="P9" s="92">
         <f>IF(F9=N4,O4,IF(F9=N5,O5,IF(F9=N6,O6,IF(F9=N7,O7,IF(F9=N8,O8,IF(F9=N9,O9,IF(F9=N10,O10,IF(F9=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q9" s="97">
+      <c r="Q9" s="92">
         <f>IF(P9="Excedido",IF(F9=N12,O12,IF(F9=N13,O13,IF(F9=N14,O14,IF(F9=N15,O15,IF(F9=N16,O16,IF(F9=N17,O17,IF(F9=N18:N18,O18,"Excedido"))))))),P9)</f>
         <v>2</v>
       </c>
-      <c r="R9" s="96">
+      <c r="R9" s="91">
         <f>IF(Q9="Excedido",IF(F9=N19,O19,IF(F9=N20,O20,IF(F9=N21,O21,IF(F9=N22,O22,IF(F9=N23,O23,IF(F9=N24,O24,IF(F9=N25,O25,"Excedido"))))))),Q9)</f>
         <v>2</v>
       </c>
@@ -4149,41 +4736,41 @@
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="70">
+      <c r="I10" s="68">
         <f>Bienes!C10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="90">
         <v>6</v>
       </c>
       <c r="K10" s="3">
         <f>IF(E10=I4,J4,IF(E10=I5,J5,IF(E10=I6,J6,IF(E10=I7,J7,IF(E10=I8,J8,IF(E10=I9,J9,IF(E10=I10,J10,IF(E10=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
         <f>IF(K10="Excedido",IF(E10=I12,J12,IF(E10=I13,J13,IF(E10=I14,J14,IF(E10=I15,J15,IF(E10=I16,J16,IF(E10=I17,J17,IF(E10=I18:I18,J18,"Excedido"))))))),K10)</f>
-        <v>2</v>
-      </c>
-      <c r="M10" s="96">
+        <v>1</v>
+      </c>
+      <c r="M10" s="91">
         <f>IF(L10="Excedido",IF(E10=I19,J19,IF(E10=I20,J20,IF(E10=I21,J21,IF(E10=I22,J22,IF(E10=I23,J23,IF(E10=I24,J24,IF(E10=I25,J25,"Excedido"))))))),L10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="16" t="str">
         <f>Proveedor!P9:P31</f>
         <v/>
       </c>
-      <c r="O10" s="92">
+      <c r="O10" s="90">
         <v>6</v>
       </c>
-      <c r="P10" s="97">
+      <c r="P10" s="92">
         <f>IF(F10=N4,O4,IF(F10=N5,O5,IF(F10=N6,O6,IF(F10=N7,O7,IF(F10=N8,O8,IF(F10=N9,O9,IF(F10=N10,O10,IF(F10=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q10" s="97">
+      <c r="Q10" s="92">
         <f>IF(P10="Excedido",IF(F10=N12,O12,IF(F10=N13,O13,IF(F10=N14,O14,IF(F10=N15,O15,IF(F10=N16,O16,IF(F10=N17,O17,IF(F10=N18:N18,O18,"Excedido"))))))),P10)</f>
         <v>2</v>
       </c>
-      <c r="R10" s="96">
+      <c r="R10" s="91">
         <f>IF(Q10="Excedido",IF(F10=N19,O19,IF(F10=N20,O20,IF(F10=N21,O21,IF(F10=N22,O22,IF(F10=N23,O23,IF(F10=N24,O24,IF(F10=N25,O25,"Excedido"))))))),Q10)</f>
         <v>2</v>
       </c>
@@ -4196,41 +4783,41 @@
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="6"/>
-      <c r="I11" s="70">
+      <c r="I11" s="68">
         <f>Bienes!C11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="92">
+      <c r="J11" s="90">
         <v>7</v>
       </c>
       <c r="K11" s="3">
         <f>IF(E11=I4,J4,IF(E11=I5,J5,IF(E11=I6,J6,IF(E11=I7,J7,IF(E11=I8,J8,IF(E11=I9,J9,IF(E11=I10,J10,IF(E11=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="3">
         <f>IF(K11="Excedido",IF(E11=I12,J12,IF(E11=I13,J13,IF(E11=I14,J14,IF(E11=I15,J15,IF(E11=I16,J16,IF(E11=I17,J17,IF(E11=I18:I18,J18,"Excedido"))))))),K11)</f>
-        <v>2</v>
-      </c>
-      <c r="M11" s="96">
+        <v>1</v>
+      </c>
+      <c r="M11" s="91">
         <f>IF(L11="Excedido",IF(E11=I19,J19,IF(E11=I20,J20,IF(E11=I21,J21,IF(E11=I22,J22,IF(E11=I23,J23,IF(E11=I24,J24,IF(E11=I25,J25,"Excedido"))))))),L11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="16" t="str">
         <f>Proveedor!P10:P32</f>
         <v/>
       </c>
-      <c r="O11" s="92">
+      <c r="O11" s="90">
         <v>7</v>
       </c>
-      <c r="P11" s="97">
+      <c r="P11" s="92">
         <f>IF(F11=N4,O4,IF(F11=N5,O5,IF(F11=N6,O6,IF(F11=N7,O7,IF(F11=N8,O8,IF(F11=N9,O9,IF(F11=N10,O10,IF(F11=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q11" s="97">
+      <c r="Q11" s="92">
         <f>IF(P11="Excedido",IF(F11=N12,O12,IF(F11=N13,O13,IF(F11=N14,O14,IF(F11=N15,O15,IF(F11=N16,O16,IF(F11=N17,O17,IF(F11=N18:N18,O18,"Excedido"))))))),P11)</f>
         <v>2</v>
       </c>
-      <c r="R11" s="96">
+      <c r="R11" s="91">
         <f>IF(Q11="Excedido",IF(F11=N19,O19,IF(F11=N20,O20,IF(F11=N21,O21,IF(F11=N22,O22,IF(F11=N23,O23,IF(F11=N24,O24,IF(F11=N25,O25,"Excedido"))))))),Q11)</f>
         <v>2</v>
       </c>
@@ -4243,41 +4830,41 @@
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="6"/>
-      <c r="I12" s="70">
+      <c r="I12" s="68">
         <f>Bienes!C12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="92">
+      <c r="J12" s="90">
         <v>8</v>
       </c>
       <c r="K12" s="3">
         <f>IF(E12=I4,J4,IF(E12=I5,J5,IF(E12=I6,J6,IF(E12=I7,J7,IF(E12=I8,J8,IF(E12=I9,J9,IF(E12=I10,J10,IF(E12=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3">
         <f>IF(K12="Excedido",IF(E12=I12,J12,IF(E12=I13,J13,IF(E12=I14,J14,IF(E12=I15,J15,IF(E12=I16,J16,IF(E12=I17,J17,IF(E12=I18:I18,J18,"Excedido"))))))),K12)</f>
-        <v>2</v>
-      </c>
-      <c r="M12" s="96">
+        <v>1</v>
+      </c>
+      <c r="M12" s="91">
         <f>IF(L12="Excedido",IF(E12=I19,J19,IF(E12=I20,J20,IF(E12=I21,J21,IF(E12=I22,J22,IF(E12=I23,J23,IF(E12=I24,J24,IF(E12=I25,J25,"Excedido"))))))),L12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="16" t="str">
         <f>Proveedor!P11:P33</f>
         <v/>
       </c>
-      <c r="O12" s="92">
+      <c r="O12" s="90">
         <v>8</v>
       </c>
-      <c r="P12" s="97">
+      <c r="P12" s="92">
         <f>IF(F12=N4,O4,IF(F12=N5,O5,IF(F12=N6,O6,IF(F12=N7,O7,IF(F12=N8,O8,IF(F12=N9,O9,IF(F12=N10,O10,IF(F12=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q12" s="97">
+      <c r="Q12" s="92">
         <f>IF(P12="Excedido",IF(F12=N12,O12,IF(F12=N13,O13,IF(F12=N14,O14,IF(F12=N15,O15,IF(F12=N16,O16,IF(F12=N17,O17,IF(F12=N18:N18,O18,"Excedido"))))))),P12)</f>
         <v>2</v>
       </c>
-      <c r="R12" s="96">
+      <c r="R12" s="91">
         <f>IF(Q12="Excedido",IF(F12=N19,O19,IF(F12=N20,O20,IF(F12=N21,O21,IF(F12=N22,O22,IF(F12=N23,O23,IF(F12=N24,O24,IF(F12=N25,O25,"Excedido"))))))),Q12)</f>
         <v>2</v>
       </c>
@@ -4290,41 +4877,41 @@
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
       <c r="G13" s="6"/>
-      <c r="I13" s="70">
+      <c r="I13" s="68">
         <f>Bienes!C13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="92">
+      <c r="J13" s="90">
         <v>9</v>
       </c>
       <c r="K13" s="3">
         <f>IF(E13=I4,J4,IF(E13=I5,J5,IF(E13=I6,J6,IF(E13=I7,J7,IF(E13=I8,J8,IF(E13=I9,J9,IF(E13=I10,J10,IF(E13=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3">
         <f>IF(K13="Excedido",IF(E13=I12,J12,IF(E13=I13,J13,IF(E13=I14,J14,IF(E13=I15,J15,IF(E13=I16,J16,IF(E13=I17,J17,IF(E13=I18:I18,J18,"Excedido"))))))),K13)</f>
-        <v>2</v>
-      </c>
-      <c r="M13" s="96">
+        <v>1</v>
+      </c>
+      <c r="M13" s="91">
         <f>IF(L13="Excedido",IF(E13=I19,J19,IF(E13=I20,J20,IF(E13=I21,J21,IF(E13=I22,J22,IF(E13=I23,J23,IF(E13=I24,J24,IF(E13=I25,J25,"Excedido"))))))),L13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="16" t="str">
         <f>Proveedor!P12:P34</f>
         <v/>
       </c>
-      <c r="O13" s="92">
+      <c r="O13" s="90">
         <v>9</v>
       </c>
-      <c r="P13" s="97">
+      <c r="P13" s="92">
         <f>IF(F13=N4,O4,IF(F13=N5,O5,IF(F13=N6,O6,IF(F13=N7,O7,IF(F13=N8,O8,IF(F13=N9,O9,IF(F13=N10,O10,IF(F13=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q13" s="97">
+      <c r="Q13" s="92">
         <f>IF(P13="Excedido",IF(F13=N12,O12,IF(F13=N13,O13,IF(F13=N14,O14,IF(F13=N15,O15,IF(F13=N16,O16,IF(F13=N17,O17,IF(F13=N18:N18,O18,"Excedido"))))))),P13)</f>
         <v>2</v>
       </c>
-      <c r="R13" s="96">
+      <c r="R13" s="91">
         <f>IF(Q13="Excedido",IF(F13=N19,O19,IF(F13=N20,O20,IF(F13=N21,O21,IF(F13=N22,O22,IF(F13=N23,O23,IF(F13=N24,O24,IF(F13=N25,O25,"Excedido"))))))),Q13)</f>
         <v>2</v>
       </c>
@@ -4337,41 +4924,41 @@
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
       <c r="G14" s="6"/>
-      <c r="I14" s="70">
+      <c r="I14" s="68">
         <f>Bienes!C14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="92">
+      <c r="J14" s="90">
         <v>10</v>
       </c>
       <c r="K14" s="3">
         <f>IF(E14=I4,J4,IF(E14=I5,J5,IF(E14=I6,J6,IF(E14=I7,J7,IF(E14=I8,J8,IF(E14=I9,J9,IF(E14=I10,J10,IF(E14=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="3">
         <f>IF(K14="Excedido",IF(E14=I12,J12,IF(E14=I13,J13,IF(E14=I14,J14,IF(E14=I15,J15,IF(E14=I16,J16,IF(E14=I17,J17,IF(E14=I18:I18,J18,"Excedido"))))))),K14)</f>
-        <v>2</v>
-      </c>
-      <c r="M14" s="96">
+        <v>1</v>
+      </c>
+      <c r="M14" s="91">
         <f>IF(L14="Excedido",IF(E14=I19,J19,IF(E14=I20,J20,IF(E14=I21,J21,IF(E14=I22,J22,IF(E14=I23,J23,IF(E14=I24,J24,IF(E14=I25,J25,"Excedido"))))))),L14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="16" t="str">
         <f>Proveedor!P13:P35</f>
         <v/>
       </c>
-      <c r="O14" s="92">
+      <c r="O14" s="90">
         <v>10</v>
       </c>
-      <c r="P14" s="97">
+      <c r="P14" s="92">
         <f>IF(F14=N4,O4,IF(F14=N5,O5,IF(F14=N6,O6,IF(F14=N7,O7,IF(F14=N8,O8,IF(F14=N9,O9,IF(F14=N10,O10,IF(F14=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q14" s="97">
+      <c r="Q14" s="92">
         <f>IF(P14="Excedido",IF(F14=N12,O12,IF(F14=N13,O13,IF(F14=N14,O14,IF(F14=N15,O15,IF(F14=N16,O16,IF(F14=N17,O17,IF(F14=N18:N18,O18,"Excedido"))))))),P14)</f>
         <v>2</v>
       </c>
-      <c r="R14" s="96">
+      <c r="R14" s="91">
         <f>IF(Q14="Excedido",IF(F14=N19,O19,IF(F14=N20,O20,IF(F14=N21,O21,IF(F14=N22,O22,IF(F14=N23,O23,IF(F14=N24,O24,IF(F14=N25,O25,"Excedido"))))))),Q14)</f>
         <v>2</v>
       </c>
@@ -4384,41 +4971,41 @@
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="70">
+      <c r="I15" s="68">
         <f>Bienes!C15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="92">
+      <c r="J15" s="90">
         <v>11</v>
       </c>
       <c r="K15" s="3">
         <f>IF(E15=I4,J4,IF(E15=I5,J5,IF(E15=I6,J6,IF(E15=I7,J7,IF(E15=I8,J8,IF(E15=I9,J9,IF(E15=I10,J10,IF(E15=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
         <f>IF(K15="Excedido",IF(E15=I12,J12,IF(E15=I13,J13,IF(E15=I14,J14,IF(E15=I15,J15,IF(E15=I16,J16,IF(E15=I17,J17,IF(E15=I18:I18,J18,"Excedido"))))))),K15)</f>
-        <v>2</v>
-      </c>
-      <c r="M15" s="96">
+        <v>1</v>
+      </c>
+      <c r="M15" s="91">
         <f>IF(L15="Excedido",IF(E15=I19,J19,IF(E15=I20,J20,IF(E15=I21,J21,IF(E15=I22,J22,IF(E15=I23,J23,IF(E15=I24,J24,IF(E15=I25,J25,"Excedido"))))))),L15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="16" t="str">
         <f>Proveedor!P14:P36</f>
         <v/>
       </c>
-      <c r="O15" s="92">
+      <c r="O15" s="90">
         <v>11</v>
       </c>
-      <c r="P15" s="97">
+      <c r="P15" s="92">
         <f>IF(F15=N4,O4,IF(F15=N5,O5,IF(F15=N6,O6,IF(F15=N7,O7,IF(F15=N8,O8,IF(F15=N9,O9,IF(F15=N10,O10,IF(F15=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q15" s="97">
+      <c r="Q15" s="92">
         <f>IF(P15="Excedido",IF(F15=N12,O12,IF(F15=N13,O13,IF(F15=N14,O14,IF(F15=N15,O15,IF(F15=N16,O16,IF(F15=N17,O17,IF(F15=N18:N18,O18,"Excedido"))))))),P15)</f>
         <v>2</v>
       </c>
-      <c r="R15" s="96">
+      <c r="R15" s="91">
         <f>IF(Q15="Excedido",IF(F15=N19,O19,IF(F15=N20,O20,IF(F15=N21,O21,IF(F15=N22,O22,IF(F15=N23,O23,IF(F15=N24,O24,IF(F15=N25,O25,"Excedido"))))))),Q15)</f>
         <v>2</v>
       </c>
@@ -4431,41 +5018,41 @@
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="6"/>
-      <c r="I16" s="70">
+      <c r="I16" s="68">
         <f>Bienes!C16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="92">
+      <c r="J16" s="90">
         <v>12</v>
       </c>
       <c r="K16" s="3">
         <f>IF(E16=I4,J4,IF(E16=I5,J5,IF(E16=I6,J6,IF(E16=I7,J7,IF(E16=I8,J8,IF(E16=I9,J9,IF(E16=I10,J10,IF(E16=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
         <f>IF(K16="Excedido",IF(E16=I12,J12,IF(E16=I13,J13,IF(E16=I14,J14,IF(E16=I15,J15,IF(E16=I16,J16,IF(E16=I17,J17,IF(E16=I18:I18,J18,"Excedido"))))))),K16)</f>
-        <v>2</v>
-      </c>
-      <c r="M16" s="96">
+        <v>1</v>
+      </c>
+      <c r="M16" s="91">
         <f>IF(L16="Excedido",IF(E16=I19,J19,IF(E16=I20,J20,IF(E16=I21,J21,IF(E16=I22,J22,IF(E16=I23,J23,IF(E16=I24,J24,IF(E16=I25,J25,"Excedido"))))))),L16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" s="16" t="str">
         <f>Proveedor!P15:P37</f>
         <v/>
       </c>
-      <c r="O16" s="92">
+      <c r="O16" s="90">
         <v>12</v>
       </c>
-      <c r="P16" s="97">
+      <c r="P16" s="92">
         <f>IF(F16=N4,O4,IF(F16=N5,O5,IF(F16=N6,O6,IF(F16=N7,O7,IF(F16=N8,O8,IF(F16=N9,O9,IF(F16=N10,O10,IF(F16=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q16" s="97">
+      <c r="Q16" s="92">
         <f>IF(P16="Excedido",IF(F16=N12,O12,IF(F16=N13,O13,IF(F16=N14,O14,IF(F16=N15,O15,IF(F16=N16,O16,IF(F16=N17,O17,IF(F16=N18:N18,O18,"Excedido"))))))),P16)</f>
         <v>2</v>
       </c>
-      <c r="R16" s="96">
+      <c r="R16" s="91">
         <f>IF(Q16="Excedido",IF(F16=N19,O19,IF(F16=N20,O20,IF(F16=N21,O21,IF(F16=N22,O22,IF(F16=N23,O23,IF(F16=N24,O24,IF(F16=N25,O25,"Excedido"))))))),Q16)</f>
         <v>2</v>
       </c>
@@ -4478,41 +5065,41 @@
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="70">
+      <c r="I17" s="68">
         <f>Bienes!C17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="92">
+      <c r="J17" s="90">
         <v>13</v>
       </c>
       <c r="K17" s="3">
         <f>IF(E17=I4,J4,IF(E17=I5,J5,IF(E17=I6,J6,IF(E17=I7,J7,IF(E17=I8,J8,IF(E17=I9,J9,IF(E17=I10,J10,IF(E17=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
         <f>IF(K17="Excedido",IF(E17=I12,J12,IF(E17=I13,J13,IF(E17=I14,J14,IF(E17=I15,J15,IF(E17=I16,J16,IF(E17=I17,J17,IF(E17=I18:I18,J18,"Excedido"))))))),K17)</f>
-        <v>2</v>
-      </c>
-      <c r="M17" s="96">
+        <v>1</v>
+      </c>
+      <c r="M17" s="91">
         <f>IF(L17="Excedido",IF(E17=I19,J19,IF(E17=I20,J20,IF(E17=I21,J21,IF(E17=I22,J22,IF(E17=I23,J23,IF(E17=I24,J24,IF(E17=I25,J25,"Excedido"))))))),L17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="16" t="str">
         <f>Proveedor!P16:P38</f>
         <v/>
       </c>
-      <c r="O17" s="92">
+      <c r="O17" s="90">
         <v>13</v>
       </c>
-      <c r="P17" s="97">
+      <c r="P17" s="92">
         <f>IF(F17=N4,O4,IF(F17=N5,O5,IF(F17=N6,O6,IF(F17=N7,O7,IF(F17=N8,O8,IF(F17=N9,O9,IF(F17=N10,O10,IF(F17=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q17" s="97">
+      <c r="Q17" s="92">
         <f>IF(P17="Excedido",IF(F17=N12,O12,IF(F17=N13,O13,IF(F17=N14,O14,IF(F17=N15,O15,IF(F17=N16,O16,IF(F17=N17,O17,IF(F17=N18:N18,O18,"Excedido"))))))),P17)</f>
         <v>2</v>
       </c>
-      <c r="R17" s="96">
+      <c r="R17" s="91">
         <f>IF(Q17="Excedido",IF(F17=N19,O19,IF(F17=N20,O20,IF(F17=N21,O21,IF(F17=N22,O22,IF(F17=N23,O23,IF(F17=N24,O24,IF(F17=N25,O25,"Excedido"))))))),Q17)</f>
         <v>2</v>
       </c>
@@ -4525,41 +5112,41 @@
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
       <c r="G18" s="6"/>
-      <c r="I18" s="70">
+      <c r="I18" s="68">
         <f>Bienes!C18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="92">
+      <c r="J18" s="90">
         <v>14</v>
       </c>
       <c r="K18" s="3">
         <f>IF(E18=I4,J4,IF(E18=I5,J5,IF(E18=I6,J6,IF(E18=I7,J7,IF(E18=I8,J8,IF(E18=I9,J9,IF(E18=I10,J10,IF(E18=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
         <f>IF(K18="Excedido",IF(E18=I12,J12,IF(E18=I13,J13,IF(E18=I14,J14,IF(E18=I15,J15,IF(E18=I16,J16,IF(E18=I17,J17,IF(E18=I18:I18,J18,"Excedido"))))))),K18)</f>
-        <v>2</v>
-      </c>
-      <c r="M18" s="96">
+        <v>1</v>
+      </c>
+      <c r="M18" s="91">
         <f>IF(L18="Excedido",IF(E18=I19,J19,IF(E18=I20,J20,IF(E18=I21,J21,IF(E18=I22,J22,IF(E18=I23,J23,IF(E18=I24,J24,IF(E18=I25,J25,"Excedido"))))))),L18)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="16" t="str">
         <f>Proveedor!P17:P39</f>
         <v/>
       </c>
-      <c r="O18" s="92">
+      <c r="O18" s="90">
         <v>14</v>
       </c>
-      <c r="P18" s="97">
+      <c r="P18" s="92">
         <f>IF(F18=N4,O4,IF(F18=N5,O5,IF(F18=N6,O6,IF(F18=N7,O7,IF(F18=N8,O8,IF(F18=N9,O9,IF(F18=N10,O10,IF(F18=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="97">
+      <c r="Q18" s="92">
         <f>IF(P18="Excedido",IF(F18=N12,O12,IF(F18=N13,O13,IF(F18=N14,O14,IF(F18=N15,O15,IF(F18=N16,O16,IF(F18=N17,O17,IF(F18=N18:N18,O18,"Excedido"))))))),P18)</f>
         <v>2</v>
       </c>
-      <c r="R18" s="96">
+      <c r="R18" s="91">
         <f>IF(Q18="Excedido",IF(F18=N19,O19,IF(F18=N20,O20,IF(F18=N21,O21,IF(F18=N22,O22,IF(F18=N23,O23,IF(F18=N24,O24,IF(F18=N25,O25,"Excedido"))))))),Q18)</f>
         <v>2</v>
       </c>
@@ -4572,41 +5159,41 @@
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
       <c r="G19" s="6"/>
-      <c r="I19" s="70">
+      <c r="I19" s="68">
         <f>Bienes!C19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="92">
+      <c r="J19" s="90">
         <v>15</v>
       </c>
       <c r="K19" s="3">
         <f>IF(E19=I4,J4,IF(E19=I5,J5,IF(E19=I6,J6,IF(E19=I7,J7,IF(E19=I8,J8,IF(E19=I9,J9,IF(E19=I10,J10,IF(E19=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="3">
         <f>IF(K19="Excedido",IF(E19=I12,J12,IF(E19=I13,J13,IF(E19=I14,J14,IF(E19=I15,J15,IF(E19=I16,J16,IF(E19=I17,J17,IF(E19=I18:I18,J18,"Excedido"))))))),K19)</f>
-        <v>2</v>
-      </c>
-      <c r="M19" s="96">
+        <v>1</v>
+      </c>
+      <c r="M19" s="91">
         <f>IF(L19="Excedido",IF(E19=I19,J19,IF(E19=I20,J20,IF(E19=I21,J21,IF(E19=I22,J22,IF(E19=I23,J23,IF(E19=I24,J24,IF(E19=I25,J25,"Excedido"))))))),L19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="16" t="str">
         <f>Proveedor!P18:P40</f>
         <v/>
       </c>
-      <c r="O19" s="92">
+      <c r="O19" s="90">
         <v>15</v>
       </c>
-      <c r="P19" s="97">
+      <c r="P19" s="92">
         <f>IF(F19=N4,O4,IF(F19=N5,O5,IF(F19=N6,O6,IF(F19=N7,O7,IF(F19=N8,O8,IF(F19=N9,O9,IF(F19=N10,O10,IF(F19=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q19" s="97">
+      <c r="Q19" s="92">
         <f>IF(P19="Excedido",IF(F19=N12,O12,IF(F19=N13,O13,IF(F19=N14,O14,IF(F19=N15,O15,IF(F19=N16,O16,IF(F19=N17,O17,IF(F19=N18:N18,O18,"Excedido"))))))),P19)</f>
         <v>2</v>
       </c>
-      <c r="R19" s="96">
+      <c r="R19" s="91">
         <f>IF(Q19="Excedido",IF(F19=N19,O19,IF(F19=N20,O20,IF(F19=N21,O21,IF(F19=N22,O22,IF(F19=N23,O23,IF(F19=N24,O24,IF(F19=N25,O25,"Excedido"))))))),Q19)</f>
         <v>2</v>
       </c>
@@ -4619,41 +5206,41 @@
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
       <c r="G20" s="6"/>
-      <c r="I20" s="70">
+      <c r="I20" s="68">
         <f>Bienes!C20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="92">
+      <c r="J20" s="90">
         <v>16</v>
       </c>
       <c r="K20" s="3">
         <f>IF(E20=I4,J4,IF(E20=I5,J5,IF(E20=I6,J6,IF(E20=I7,J7,IF(E20=I8,J8,IF(E20=I9,J9,IF(E20=I10,J10,IF(E20=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3">
         <f>IF(K20="Excedido",IF(E20=I12,J12,IF(E20=I13,J13,IF(E20=I14,J14,IF(E20=I15,J15,IF(E20=I16,J16,IF(E20=I17,J17,IF(E20=I18:I18,J18,"Excedido"))))))),K20)</f>
-        <v>2</v>
-      </c>
-      <c r="M20" s="96">
+        <v>1</v>
+      </c>
+      <c r="M20" s="91">
         <f>IF(L20="Excedido",IF(E20=I19,J19,IF(E20=I20,J20,IF(E20=I21,J21,IF(E20=I22,J22,IF(E20=I23,J23,IF(E20=I24,J24,IF(E20=I25,J25,"Excedido"))))))),L20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="16" t="str">
         <f>Proveedor!P19:P41</f>
         <v/>
       </c>
-      <c r="O20" s="92">
+      <c r="O20" s="90">
         <v>16</v>
       </c>
-      <c r="P20" s="97">
+      <c r="P20" s="92">
         <f>IF(F20=N4,O4,IF(F20=N5,O5,IF(F20=N6,O6,IF(F20=N7,O7,IF(F20=N8,O8,IF(F20=N9,O9,IF(F20=N10,O10,IF(F20=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q20" s="97">
+      <c r="Q20" s="92">
         <f>IF(P20="Excedido",IF(F20=N12,O12,IF(F20=N13,O13,IF(F20=N14,O14,IF(F20=N15,O15,IF(F20=N16,O16,IF(F20=N17,O17,IF(F20=N18:N18,O18,"Excedido"))))))),P20)</f>
         <v>2</v>
       </c>
-      <c r="R20" s="96">
+      <c r="R20" s="91">
         <f>IF(Q20="Excedido",IF(F20=N19,O19,IF(F20=N20,O20,IF(F20=N21,O21,IF(F20=N22,O22,IF(F20=N23,O23,IF(F20=N24,O24,IF(F20=N25,O25,"Excedido"))))))),Q20)</f>
         <v>2</v>
       </c>
@@ -4666,41 +5253,41 @@
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="6"/>
-      <c r="I21" s="70">
+      <c r="I21" s="68">
         <f>Bienes!C21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="92">
+      <c r="J21" s="90">
         <v>17</v>
       </c>
       <c r="K21" s="3">
         <f>IF(E21=I4,J4,IF(E21=I5,J5,IF(E21=I6,J6,IF(E21=I7,J7,IF(E21=I8,J8,IF(E21=I9,J9,IF(E21=I10,J10,IF(E21=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="3">
         <f>IF(K21="Excedido",IF(E21=I12,J12,IF(E21=I13,J13,IF(E21=I14,J14,IF(E21=I15,J15,IF(E21=I16,J16,IF(E21=I17,J17,IF(E21=I18:I18,J18,"Excedido"))))))),K21)</f>
-        <v>2</v>
-      </c>
-      <c r="M21" s="96">
+        <v>1</v>
+      </c>
+      <c r="M21" s="91">
         <f>IF(L21="Excedido",IF(E21=I19,J19,IF(E21=I20,J20,IF(E21=I21,J21,IF(E21=I22,J22,IF(E21=I23,J23,IF(E21=I24,J24,IF(E21=I25,J25,"Excedido"))))))),L21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" s="16" t="str">
         <f>Proveedor!P20:P42</f>
         <v/>
       </c>
-      <c r="O21" s="92">
+      <c r="O21" s="90">
         <v>17</v>
       </c>
-      <c r="P21" s="97">
+      <c r="P21" s="92">
         <f>IF(F21=N4,O4,IF(F21=N5,O5,IF(F21=N6,O6,IF(F21=N7,O7,IF(F21=N8,O8,IF(F21=N9,O9,IF(F21=N10,O10,IF(F21=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q21" s="97">
+      <c r="Q21" s="92">
         <f>IF(P21="Excedido",IF(F21=N12,O12,IF(F21=N13,O13,IF(F21=N14,O14,IF(F21=N15,O15,IF(F21=N16,O16,IF(F21=N17,O17,IF(F21=N18:N18,O18,"Excedido"))))))),P21)</f>
         <v>2</v>
       </c>
-      <c r="R21" s="96">
+      <c r="R21" s="91">
         <f>IF(Q21="Excedido",IF(F21=N19,O19,IF(F21=N20,O20,IF(F21=N21,O21,IF(F21=N22,O22,IF(F21=N23,O23,IF(F21=N24,O24,IF(F21=N25,O25,"Excedido"))))))),Q21)</f>
         <v>2</v>
       </c>
@@ -4713,41 +5300,41 @@
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="6"/>
-      <c r="I22" s="70">
+      <c r="I22" s="68">
         <f>Bienes!C22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="92">
+      <c r="J22" s="90">
         <v>18</v>
       </c>
       <c r="K22" s="3">
         <f>IF(E22=I4,J4,IF(E22=I5,J5,IF(E22=I6,J6,IF(E22=I7,J7,IF(E22=I8,J8,IF(E22=I9,J9,IF(E22=I10,J10,IF(E22=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" s="3">
         <f>IF(K22="Excedido",IF(E22=I12,J12,IF(E22=I13,J13,IF(E22=I14,J14,IF(E22=I15,J15,IF(E22=I16,J16,IF(E22=I17,J17,IF(E22=I18:I18,J18,"Excedido"))))))),K22)</f>
-        <v>2</v>
-      </c>
-      <c r="M22" s="96">
+        <v>1</v>
+      </c>
+      <c r="M22" s="91">
         <f>IF(L22="Excedido",IF(E22=I19,J19,IF(E22=I20,J20,IF(E22=I21,J21,IF(E22=I22,J22,IF(E22=I23,J23,IF(E22=I24,J24,IF(E22=I25,J25,"Excedido"))))))),L22)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="16" t="str">
         <f>Proveedor!P21:P43</f>
         <v/>
       </c>
-      <c r="O22" s="92">
+      <c r="O22" s="90">
         <v>18</v>
       </c>
-      <c r="P22" s="97">
+      <c r="P22" s="92">
         <f>IF(F22=N4,O4,IF(F22=N5,O5,IF(F22=N6,O6,IF(F22=N7,O7,IF(F22=N8,O8,IF(F22=N9,O9,IF(F22=N10,O10,IF(F22=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q22" s="97">
+      <c r="Q22" s="92">
         <f>IF(P22="Excedido",IF(F22=N12,O12,IF(F22=N13,O13,IF(F22=N14,O14,IF(F22=N15,O15,IF(F22=N16,O16,IF(F22=N17,O17,IF(F22=N18:N18,O18,"Excedido"))))))),P22)</f>
         <v>2</v>
       </c>
-      <c r="R22" s="96">
+      <c r="R22" s="91">
         <f>IF(Q22="Excedido",IF(F22=N19,O19,IF(F22=N20,O20,IF(F22=N21,O21,IF(F22=N22,O22,IF(F22=N23,O23,IF(F22=N24,O24,IF(F22=N25,O25,"Excedido"))))))),Q22)</f>
         <v>2</v>
       </c>
@@ -4760,41 +5347,41 @@
       <c r="E23" s="23"/>
       <c r="F23" s="24"/>
       <c r="G23" s="6"/>
-      <c r="I23" s="70">
+      <c r="I23" s="68">
         <f>Bienes!C23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="92">
+      <c r="J23" s="90">
         <v>19</v>
       </c>
       <c r="K23" s="3">
         <f>IF(E23=I4,J4,IF(E23=I5,J5,IF(E23=I6,J6,IF(E23=I7,J7,IF(E23=I8,J8,IF(E23=I9,J9,IF(E23=I10,J10,IF(E23=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="3">
         <f>IF(K23="Excedido",IF(E23=I12,J12,IF(E23=I13,J13,IF(E23=I14,J14,IF(E23=I15,J15,IF(E23=I16,J16,IF(E23=I17,J17,IF(E23=I18:I18,J18,"Excedido"))))))),K23)</f>
-        <v>2</v>
-      </c>
-      <c r="M23" s="96">
+        <v>1</v>
+      </c>
+      <c r="M23" s="91">
         <f>IF(L23="Excedido",IF(E23=I19,J19,IF(E23=I20,J20,IF(E23=I21,J21,IF(E23=I22,J22,IF(E23=I23,J23,IF(E23=I24,J24,IF(E23=I25,J25,"Excedido"))))))),L23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="16" t="str">
         <f>Proveedor!P22:P44</f>
         <v/>
       </c>
-      <c r="O23" s="92">
+      <c r="O23" s="90">
         <v>19</v>
       </c>
-      <c r="P23" s="97">
+      <c r="P23" s="92">
         <f>IF(F23=N4,O4,IF(F23=N5,O5,IF(F23=N6,O6,IF(F23=N7,O7,IF(F23=N8,O8,IF(F23=N9,O9,IF(F23=N10,O10,IF(F23=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q23" s="97">
+      <c r="Q23" s="92">
         <f>IF(P23="Excedido",IF(F23=N12,O12,IF(F23=N13,O13,IF(F23=N14,O14,IF(F23=N15,O15,IF(F23=N16,O16,IF(F23=N17,O17,IF(F23=N18:N18,O18,"Excedido"))))))),P23)</f>
         <v>2</v>
       </c>
-      <c r="R23" s="96">
+      <c r="R23" s="91">
         <f>IF(Q23="Excedido",IF(F23=N19,O19,IF(F23=N20,O20,IF(F23=N21,O21,IF(F23=N22,O22,IF(F23=N23,O23,IF(F23=N24,O24,IF(F23=N25,O25,"Excedido"))))))),Q23)</f>
         <v>2</v>
       </c>
@@ -4807,41 +5394,41 @@
       <c r="E24" s="23"/>
       <c r="F24" s="24"/>
       <c r="G24" s="6"/>
-      <c r="I24" s="70">
+      <c r="I24" s="68">
         <f>Bienes!C24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="92">
+      <c r="J24" s="90">
         <v>20</v>
       </c>
       <c r="K24" s="3">
         <f>IF(E24=I4,J4,IF(E24=I5,J5,IF(E24=I6,J6,IF(E24=I7,J7,IF(E24=I8,J8,IF(E24=I9,J9,IF(E24=I10,J10,IF(E24=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="3">
         <f>IF(K24="Excedido",IF(E24=I12,J12,IF(E24=I13,J13,IF(E24=I14,J14,IF(E24=I15,J15,IF(E24=I16,J16,IF(E24=I17,J17,IF(E24=I18:I18,J18,"Excedido"))))))),K24)</f>
-        <v>2</v>
-      </c>
-      <c r="M24" s="96">
+        <v>1</v>
+      </c>
+      <c r="M24" s="91">
         <f>IF(L24="Excedido",IF(E24=I19,J19,IF(E24=I20,J20,IF(E24=I21,J21,IF(E24=I22,J22,IF(E24=I23,J23,IF(E24=I24,J24,IF(E24=I25,J25,"Excedido"))))))),L24)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" s="16" t="str">
         <f>Proveedor!P23:P45</f>
         <v/>
       </c>
-      <c r="O24" s="92">
+      <c r="O24" s="90">
         <v>20</v>
       </c>
-      <c r="P24" s="97">
+      <c r="P24" s="92">
         <f>IF(F24=N4,O4,IF(F24=N5,O5,IF(F24=N6,O6,IF(F24=N7,O7,IF(F24=N8,O8,IF(F24=N9,O9,IF(F24=N10,O10,IF(F24=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q24" s="97">
+      <c r="Q24" s="92">
         <f>IF(P24="Excedido",IF(F24=N12,O12,IF(F24=N13,O13,IF(F24=N14,O14,IF(F24=N15,O15,IF(F24=N16,O16,IF(F24=N17,O17,IF(F24=N18:N18,O18,"Excedido"))))))),P24)</f>
         <v>2</v>
       </c>
-      <c r="R24" s="96">
+      <c r="R24" s="91">
         <f>IF(Q24="Excedido",IF(F24=N19,O19,IF(F24=N20,O20,IF(F24=N21,O21,IF(F24=N22,O22,IF(F24=N23,O23,IF(F24=N24,O24,IF(F24=N25,O25,"Excedido"))))))),Q24)</f>
         <v>2</v>
       </c>
@@ -4858,37 +5445,37 @@
         <f>Bienes!C25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="92">
+      <c r="J25" s="90">
         <v>21</v>
       </c>
       <c r="K25" s="3">
         <f>IF(E25=I4,J4,IF(E25=I5,J5,IF(E25=I6,J6,IF(E25=I7,J7,IF(E25=I8,J8,IF(E25=I9,J9,IF(E25=I10,J10,IF(E25=I11,J11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" s="3">
         <f>IF(K25="Excedido",IF(E25=I12,J12,IF(E25=I13,J13,IF(E25=I14,J14,IF(E25=I15,J15,IF(E25=I16,J16,IF(E25=I17,J17,IF(E25=I18:I18,J18,"Excedido"))))))),K25)</f>
-        <v>2</v>
-      </c>
-      <c r="M25" s="96">
+        <v>1</v>
+      </c>
+      <c r="M25" s="91">
         <f>IF(L25="Excedido",IF(E25=I19,J19,IF(E25=I20,J20,IF(E25=I21,J21,IF(E25=I22,J22,IF(E25=I23,J23,IF(E25=I24,J24,IF(E25=I25,J25,"Excedido"))))))),L25)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="16" t="str">
         <f>Proveedor!P24:P46</f>
         <v/>
       </c>
-      <c r="O25" s="92">
+      <c r="O25" s="90">
         <v>21</v>
       </c>
-      <c r="P25" s="97">
+      <c r="P25" s="92">
         <f>IF(F25=N4,O4,IF(F25=N5,O5,IF(F25=N6,O6,IF(F25=N7,O7,IF(F25=N8,O8,IF(F25=N9,O9,IF(F25=N10,O10,IF(F25=N11,O11,"Excedido"))))))))</f>
         <v>2</v>
       </c>
-      <c r="Q25" s="97">
+      <c r="Q25" s="92">
         <f>IF(P25="Excedido",IF(F25=N12,O12,IF(F25=N13,O13,IF(F25=N14,O14,IF(F25=N15,O15,IF(F25=N16,O16,IF(F25=N17,O17,IF(F25=N18:N18,O18,"Excedido"))))))),P25)</f>
         <v>2</v>
       </c>
-      <c r="R25" s="96">
+      <c r="R25" s="91">
         <f>IF(Q25="Excedido",IF(F25=N19,O19,IF(F25=N20,O20,IF(F25=N21,O21,IF(F25=N22,O22,IF(F25=N23,O23,IF(F25=N24,O24,IF(F25=N25,O25,"Excedido"))))))),Q25)</f>
         <v>2</v>
       </c>
@@ -4951,6 +5538,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4976,81 +5564,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="147"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="162"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="148" t="s">
+      <c r="G1" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="84" t="s">
         <v>107</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="J2" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="82">
-        <v>1</v>
-      </c>
-      <c r="M2" s="82">
-        <v>2</v>
-      </c>
-      <c r="N2" s="82" t="s">
+      <c r="L2" s="80">
+        <v>1</v>
+      </c>
+      <c r="M2" s="80">
+        <v>2</v>
+      </c>
+      <c r="N2" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="82">
-        <v>1</v>
-      </c>
-      <c r="P2" s="82">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="91" t="s">
+      <c r="O2" s="80">
+        <v>1</v>
+      </c>
+      <c r="P2" s="80">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="R2" s="81" t="s">
+      <c r="R2" s="79" t="s">
         <v>10</v>
       </c>
       <c r="S2" s="54" t="s">
@@ -5058,13 +5646,13 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="80"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="22"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -5074,25 +5662,25 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="77"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="22"/>
       <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="40">
@@ -5101,29 +5689,29 @@
       </c>
       <c r="H4" s="9" t="str">
         <f>Bienes!C4</f>
-        <v>RN256</v>
+        <v>RNIII</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="str">
         <f>AcuerdoServicio!A4</f>
-        <v>AcuerdoRN256</v>
+        <v>AcuerdoRN260</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="3" t="str">
         <f>IF(D4=H4,I4,IF(D4=H5,I5,IF(D4=H6,I6,IF(D4=H7,I7,IF(D4=H8,I8,IF(D4=H9,I9,IF(D4=H10,I10,IF(D4=H11,I11,"Excedido"))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
+        <v>Excedido</v>
+      </c>
+      <c r="M4" s="3" t="str">
         <f>IF(L4="Excedido",IF(D4=H12,I12,IF(D4=H13,I13,IF(D4=H14,I14,IF(D4=H15,I15,IF(D4=H16,I16,IF(D4=H17,I17,IF(D4=H18:H18,I18,"Excedido"))))))),L4)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
+        <v>Excedido</v>
+      </c>
+      <c r="N4" s="3" t="str">
         <f>IF(M4="Excedido",IF(D4=H19,I19,IF(D4=H20,I20,IF(D4=H21,I21,IF(D4=H22,I22,IF(D4=H23,I23,IF(D4=H24,I24,IF(D4=H25,I25,"Excedido"))))))),M4)</f>
-        <v>0</v>
+        <v>Excedido</v>
       </c>
       <c r="O4" s="3">
         <f>IF(E4=J4,K4,IF(E4=J5,K5,IF(E4=J6,K6,IF(E4=J7,K7,IF(E4=J8,K8,IF(E4=J9,K9,IF(E4=J10,K10,IF(E4=J11,K11,"Excedido"))))))))</f>
@@ -5133,7 +5721,7 @@
         <f>IF(O4="Excedido",IF(E4=J12,K12,IF(E4=J13,K13,IF(E4=J14,K14,IF(E4=J15,K15,IF(E4=J16,K16,IF(E4=J17,K17,IF(E4=J18:J18,K18,"Excedido"))))))),O4)</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="69">
+      <c r="Q4" s="67">
         <f>IF(P4="Excedido",IF(E4=J19,K19,IF(E4=J20,K20,IF(E4=J21,K21,IF(E4=J22,K22,IF(E4=J23,K23,IF(E4=J24,K24,IF(E4=J25,K25,"Excedido"))))))),P4)</f>
         <v>1</v>
       </c>
@@ -5145,9 +5733,9 @@
         <f>IF(C4="TCC",1,2)</f>
         <v>2</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="str">
         <f>N4</f>
-        <v>0</v>
+        <v>Excedido</v>
       </c>
       <c r="U4">
         <f>Q4</f>
@@ -5156,24 +5744,24 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="H5" s="9" t="str">
+      <c r="H5" s="9">
         <f>Bienes!C5</f>
-        <v>RN257</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -5185,17 +5773,17 @@
       <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="3" t="str">
         <f>IF(D5=H4,I4,IF(D5=H5,I5,IF(D5=H6,I6,IF(D5=H7,I7,IF(D5=H8,I8,IF(D5=H9,I9,IF(D5=H10,I10,IF(D5=H11,I11,"Excedido"))))))))</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
+        <v>Excedido</v>
+      </c>
+      <c r="M5" s="3" t="str">
         <f>IF(L5="Excedido",IF(D5=H12,I12,IF(D5=H13,I13,IF(D5=H14,I14,IF(D5=H15,I15,IF(D5=H16,I16,IF(D5=H17,I17,IF(D5=H18:H18,I18,"Excedido"))))))),L5)</f>
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
+        <v>Excedido</v>
+      </c>
+      <c r="N5" s="3" t="str">
         <f>IF(M5="Excedido",IF(D5=H19,I19,IF(D5=H20,I20,IF(D5=H21,I21,IF(D5=H22,I22,IF(D5=H23,I23,IF(D5=H24,I24,IF(D5=H25,I25,"Excedido"))))))),M5)</f>
-        <v>1</v>
+        <v>Excedido</v>
       </c>
       <c r="O5" s="3">
         <f>IF(E5=J4,K4,IF(E5=J5,K5,IF(E5=J6,K6,IF(E5=J7,K7,IF(E5=J8,K8,IF(E5=J9,K9,IF(E5=J10,K10,IF(E5=J11,K11,"Excedido"))))))))</f>
@@ -5205,7 +5793,7 @@
         <f>IF(O5="Excedido",IF(E5=J12,K12,IF(E5=J13,K13,IF(E5=J14,K14,IF(E5=J15,K15,IF(E5=J16,K16,IF(E5=J17,K17,IF(E5=J18:J18,K18,"Excedido"))))))),O5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="69">
+      <c r="Q5" s="67">
         <f>IF(P5="Excedido",IF(E5=J19,K19,IF(E5=J20,K20,IF(E5=J21,K21,IF(E5=J22,K22,IF(E5=J23,K23,IF(E5=J24,K24,IF(E5=J25,K25,"Excedido"))))))),P5)</f>
         <v>0</v>
       </c>
@@ -5217,9 +5805,9 @@
         <f t="shared" ref="S5:S25" si="1">IF(C5="TCC",1,2)</f>
         <v>1</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="str">
         <f t="shared" ref="T5:T25" si="2">N5</f>
-        <v>1</v>
+        <v>Excedido</v>
       </c>
       <c r="U5">
         <f t="shared" ref="U5:U25" si="3">Q5</f>
@@ -5249,15 +5837,15 @@
       </c>
       <c r="L6" s="3">
         <f>IF(D6=H4,I4,IF(D6=H5,I5,IF(D6=H6,I6,IF(D6=H7,I7,IF(D6=H8,I8,IF(D6=H9,I9,IF(D6=H10,I10,IF(D6=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3">
         <f>IF(L6="Excedido",IF(D6=H12,I12,IF(D6=H13,I13,IF(D6=H14,I14,IF(D6=H15,I15,IF(D6=H16,I16,IF(D6=H17,I17,IF(D6=H18:H18,I18,"Excedido"))))))),L6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="3">
         <f>IF(M6="Excedido",IF(D6=H19,I19,IF(D6=H20,I20,IF(D6=H21,I21,IF(D6=H22,I22,IF(D6=H23,I23,IF(D6=H24,I24,IF(D6=H25,I25,"Excedido"))))))),M6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" s="3">
         <f>IF(E6=J4,K4,IF(E6=J5,K5,IF(E6=J6,K6,IF(E6=J7,K7,IF(E6=J8,K8,IF(E6=J9,K9,IF(E6=J10,K10,IF(E6=J11,K11,"Excedido"))))))))</f>
@@ -5267,7 +5855,7 @@
         <f>IF(O6="Excedido",IF(E6=J12,K12,IF(E6=J13,K13,IF(E6=J14,K14,IF(E6=J15,K15,IF(E6=J16,K16,IF(E6=J17,K17,IF(E6=J18:J18,K18,"Excedido"))))))),O6)</f>
         <v>2</v>
       </c>
-      <c r="Q6" s="69">
+      <c r="Q6" s="67">
         <f>IF(P6="Excedido",IF(E6=J19,K19,IF(E6=J20,K20,IF(E6=J21,K21,IF(E6=J22,K22,IF(E6=J23,K23,IF(E6=J24,K24,IF(E6=J25,K25,"Excedido"))))))),P6)</f>
         <v>2</v>
       </c>
@@ -5281,7 +5869,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
@@ -5311,15 +5899,15 @@
       </c>
       <c r="L7" s="3">
         <f>IF(D7=H4,I4,IF(D7=H5,I5,IF(D7=H6,I6,IF(D7=H7,I7,IF(D7=H8,I8,IF(D7=H9,I9,IF(D7=H10,I10,IF(D7=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
         <f>IF(L7="Excedido",IF(D7=H12,I12,IF(D7=H13,I13,IF(D7=H14,I14,IF(D7=H15,I15,IF(D7=H16,I16,IF(D7=H17,I17,IF(D7=H18:H18,I18,"Excedido"))))))),L7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="3">
         <f>IF(M7="Excedido",IF(D7=H19,I19,IF(D7=H20,I20,IF(D7=H21,I21,IF(D7=H22,I22,IF(D7=H23,I23,IF(D7=H24,I24,IF(D7=H25,I25,"Excedido"))))))),M7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="3">
         <f>IF(E7=J4,K4,IF(E7=J5,K5,IF(E7=J6,K6,IF(E7=J7,K7,IF(E7=J8,K8,IF(E7=J9,K9,IF(E7=J10,K10,IF(E7=J11,K11,"Excedido"))))))))</f>
@@ -5329,7 +5917,7 @@
         <f>IF(O7="Excedido",IF(E7=J12,K12,IF(E7=J13,K13,IF(E7=J14,K14,IF(E7=J15,K15,IF(E7=J16,K16,IF(E7=J17,K17,IF(E7=J18:J18,K18,"Excedido"))))))),O7)</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="69">
+      <c r="Q7" s="67">
         <f>IF(P7="Excedido",IF(E7=J19,K19,IF(E7=J20,K20,IF(E7=J21,K21,IF(E7=J22,K22,IF(E7=J23,K23,IF(E7=J24,K24,IF(E7=J25,K25,"Excedido"))))))),P7)</f>
         <v>2</v>
       </c>
@@ -5343,7 +5931,7 @@
       </c>
       <c r="T7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
@@ -5373,15 +5961,15 @@
       </c>
       <c r="L8" s="3">
         <f>IF(D8=H4,I4,IF(D8=H5,I5,IF(D8=H6,I6,IF(D8=H7,I7,IF(D8=H8,I8,IF(D8=H9,I9,IF(D8=H10,I10,IF(D8=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
         <f>IF(L8="Excedido",IF(D8=H12,I12,IF(D8=H13,I13,IF(D8=H14,I14,IF(D8=H15,I15,IF(D8=H16,I16,IF(D8=H17,I17,IF(D8=H18:H18,I18,"Excedido"))))))),L8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3">
         <f>IF(M8="Excedido",IF(D8=H19,I19,IF(D8=H20,I20,IF(D8=H21,I21,IF(D8=H22,I22,IF(D8=H23,I23,IF(D8=H24,I24,IF(D8=H25,I25,"Excedido"))))))),M8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" s="3">
         <f>IF(E8=J4,K4,IF(E8=J5,K5,IF(E8=J6,K6,IF(E8=J7,K7,IF(E8=J8,K8,IF(E8=J9,K9,IF(E8=J10,K10,IF(E8=J11,K11,"Excedido"))))))))</f>
@@ -5391,7 +5979,7 @@
         <f>IF(O8="Excedido",IF(E8=J12,K12,IF(E8=J13,K13,IF(E8=J14,K14,IF(E8=J15,K15,IF(E8=J16,K16,IF(E8=J17,K17,IF(E8=J18:J18,K18,"Excedido"))))))),O8)</f>
         <v>2</v>
       </c>
-      <c r="Q8" s="69">
+      <c r="Q8" s="67">
         <f>IF(P8="Excedido",IF(E8=J19,K19,IF(E8=J20,K20,IF(E8=J21,K21,IF(E8=J22,K22,IF(E8=J23,K23,IF(E8=J24,K24,IF(E8=J25,K25,"Excedido"))))))),P8)</f>
         <v>2</v>
       </c>
@@ -5405,7 +5993,7 @@
       </c>
       <c r="T8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
@@ -5435,15 +6023,15 @@
       </c>
       <c r="L9" s="3">
         <f>IF(D9=H4,I4,IF(D9=H5,I5,IF(D9=H6,I6,IF(D9=H7,I7,IF(D9=H8,I8,IF(D9=H9,I9,IF(D9=H10,I10,IF(D9=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
         <f>IF(L9="Excedido",IF(D9=H12,I12,IF(D9=H13,I13,IF(D9=H14,I14,IF(D9=H15,I15,IF(D9=H16,I16,IF(D9=H17,I17,IF(D9=H18:H18,I18,"Excedido"))))))),L9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="3">
         <f>IF(M9="Excedido",IF(D9=H19,I19,IF(D9=H20,I20,IF(D9=H21,I21,IF(D9=H22,I22,IF(D9=H23,I23,IF(D9=H24,I24,IF(D9=H25,I25,"Excedido"))))))),M9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="3">
         <f>IF(E9=J4,K4,IF(E9=J5,K5,IF(E9=J6,K6,IF(E9=J7,K7,IF(E9=J8,K8,IF(E9=J9,K9,IF(E9=J10,K10,IF(E9=J11,K11,"Excedido"))))))))</f>
@@ -5453,7 +6041,7 @@
         <f>IF(O9="Excedido",IF(E9=J12,K12,IF(E9=J13,K13,IF(E9=J14,K14,IF(E9=J15,K15,IF(E9=J16,K16,IF(E9=J17,K17,IF(E9=J18:J18,K18,"Excedido"))))))),O9)</f>
         <v>2</v>
       </c>
-      <c r="Q9" s="69">
+      <c r="Q9" s="67">
         <f>IF(P9="Excedido",IF(E9=J19,K19,IF(E9=J20,K20,IF(E9=J21,K21,IF(E9=J22,K22,IF(E9=J23,K23,IF(E9=J24,K24,IF(E9=J25,K25,"Excedido"))))))),P9)</f>
         <v>2</v>
       </c>
@@ -5467,7 +6055,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
@@ -5497,15 +6085,15 @@
       </c>
       <c r="L10" s="3">
         <f>IF(D10=H4,I4,IF(D10=H5,I5,IF(D10=H6,I6,IF(D10=H7,I7,IF(D10=H8,I8,IF(D10=H9,I9,IF(D10=H10,I10,IF(D10=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3">
         <f>IF(L10="Excedido",IF(D10=H12,I12,IF(D10=H13,I13,IF(D10=H14,I14,IF(D10=H15,I15,IF(D10=H16,I16,IF(D10=H17,I17,IF(D10=H18:H18,I18,"Excedido"))))))),L10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="3">
         <f>IF(M10="Excedido",IF(D10=H19,I19,IF(D10=H20,I20,IF(D10=H21,I21,IF(D10=H22,I22,IF(D10=H23,I23,IF(D10=H24,I24,IF(D10=H25,I25,"Excedido"))))))),M10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" s="3">
         <f>IF(E10=J4,K4,IF(E10=J5,K5,IF(E10=J6,K6,IF(E10=J7,K7,IF(E10=J8,K8,IF(E10=J9,K9,IF(E10=J10,K10,IF(E10=J11,K11,"Excedido"))))))))</f>
@@ -5515,7 +6103,7 @@
         <f>IF(O10="Excedido",IF(E10=J12,K12,IF(E10=J13,K13,IF(E10=J14,K14,IF(E10=J15,K15,IF(E10=J16,K16,IF(E10=J17,K17,IF(E10=J18:J18,K18,"Excedido"))))))),O10)</f>
         <v>2</v>
       </c>
-      <c r="Q10" s="69">
+      <c r="Q10" s="67">
         <f>IF(P10="Excedido",IF(E10=J19,K19,IF(E10=J20,K20,IF(E10=J21,K21,IF(E10=J22,K22,IF(E10=J23,K23,IF(E10=J24,K24,IF(E10=J25,K25,"Excedido"))))))),P10)</f>
         <v>2</v>
       </c>
@@ -5529,7 +6117,7 @@
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
@@ -5559,15 +6147,15 @@
       </c>
       <c r="L11" s="3">
         <f>IF(D11=H4,I4,IF(D11=H5,I5,IF(D11=H6,I6,IF(D11=H7,I7,IF(D11=H8,I8,IF(D11=H9,I9,IF(D11=H10,I10,IF(D11=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3">
         <f>IF(L11="Excedido",IF(D11=H12,I12,IF(D11=H13,I13,IF(D11=H14,I14,IF(D11=H15,I15,IF(D11=H16,I16,IF(D11=H17,I17,IF(D11=H18:H18,I18,"Excedido"))))))),L11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="3">
         <f>IF(M11="Excedido",IF(D11=H19,I19,IF(D11=H20,I20,IF(D11=H21,I21,IF(D11=H22,I22,IF(D11=H23,I23,IF(D11=H24,I24,IF(D11=H25,I25,"Excedido"))))))),M11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" s="3">
         <f>IF(E11=J4,K4,IF(E11=J5,K5,IF(E11=J6,K6,IF(E11=J7,K7,IF(E11=J8,K8,IF(E11=J9,K9,IF(E11=J10,K10,IF(E11=J11,K11,"Excedido"))))))))</f>
@@ -5577,7 +6165,7 @@
         <f>IF(O11="Excedido",IF(E11=J12,K12,IF(E11=J13,K13,IF(E11=J14,K14,IF(E11=J15,K15,IF(E11=J16,K16,IF(E11=J17,K17,IF(E11=J18:J18,K18,"Excedido"))))))),O11)</f>
         <v>2</v>
       </c>
-      <c r="Q11" s="69">
+      <c r="Q11" s="67">
         <f>IF(P11="Excedido",IF(E11=J19,K19,IF(E11=J20,K20,IF(E11=J21,K21,IF(E11=J22,K22,IF(E11=J23,K23,IF(E11=J24,K24,IF(E11=J25,K25,"Excedido"))))))),P11)</f>
         <v>2</v>
       </c>
@@ -5591,7 +6179,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
@@ -5621,15 +6209,15 @@
       </c>
       <c r="L12" s="3">
         <f>IF(D12=H4,I4,IF(D12=H5,I5,IF(D12=H6,I6,IF(D12=H7,I7,IF(D12=H8,I8,IF(D12=H9,I9,IF(D12=H10,I10,IF(D12=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
         <f>IF(L12="Excedido",IF(D12=H12,I12,IF(D12=H13,I13,IF(D12=H14,I14,IF(D12=H15,I15,IF(D12=H16,I16,IF(D12=H17,I17,IF(D12=H18:H18,I18,"Excedido"))))))),L12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="3">
         <f>IF(M12="Excedido",IF(D12=H19,I19,IF(D12=H20,I20,IF(D12=H21,I21,IF(D12=H22,I22,IF(D12=H23,I23,IF(D12=H24,I24,IF(D12=H25,I25,"Excedido"))))))),M12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" s="3">
         <f>IF(E12=J4,K4,IF(E12=J5,K5,IF(E12=J6,K6,IF(E12=J7,K7,IF(E12=J8,K8,IF(E12=J9,K9,IF(E12=J10,K10,IF(E12=J11,K11,"Excedido"))))))))</f>
@@ -5639,7 +6227,7 @@
         <f>IF(O12="Excedido",IF(E12=J12,K12,IF(E12=J13,K13,IF(E12=J14,K14,IF(E12=J15,K15,IF(E12=J16,K16,IF(E12=J17,K17,IF(E12=J18:J18,K18,"Excedido"))))))),O12)</f>
         <v>2</v>
       </c>
-      <c r="Q12" s="69">
+      <c r="Q12" s="67">
         <f>IF(P12="Excedido",IF(E12=J19,K19,IF(E12=J20,K20,IF(E12=J21,K21,IF(E12=J22,K22,IF(E12=J23,K23,IF(E12=J24,K24,IF(E12=J25,K25,"Excedido"))))))),P12)</f>
         <v>2</v>
       </c>
@@ -5653,7 +6241,7 @@
       </c>
       <c r="T12">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <f t="shared" si="3"/>
@@ -5683,15 +6271,15 @@
       </c>
       <c r="L13" s="3">
         <f>IF(D13=H4,I4,IF(D13=H5,I5,IF(D13=H6,I6,IF(D13=H7,I7,IF(D13=H8,I8,IF(D13=H9,I9,IF(D13=H10,I10,IF(D13=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3">
         <f>IF(L13="Excedido",IF(D13=H12,I12,IF(D13=H13,I13,IF(D13=H14,I14,IF(D13=H15,I15,IF(D13=H16,I16,IF(D13=H17,I17,IF(D13=H18:H18,I18,"Excedido"))))))),L13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3">
         <f>IF(M13="Excedido",IF(D13=H19,I19,IF(D13=H20,I20,IF(D13=H21,I21,IF(D13=H22,I22,IF(D13=H23,I23,IF(D13=H24,I24,IF(D13=H25,I25,"Excedido"))))))),M13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="3">
         <f>IF(E13=J4,K4,IF(E13=J5,K5,IF(E13=J6,K6,IF(E13=J7,K7,IF(E13=J8,K8,IF(E13=J9,K9,IF(E13=J10,K10,IF(E13=J11,K11,"Excedido"))))))))</f>
@@ -5701,7 +6289,7 @@
         <f>IF(O13="Excedido",IF(E13=J12,K12,IF(E13=J13,K13,IF(E13=J14,K14,IF(E13=J15,K15,IF(E13=J16,K16,IF(E13=J17,K17,IF(E13=J18:J18,K18,"Excedido"))))))),O13)</f>
         <v>2</v>
       </c>
-      <c r="Q13" s="69">
+      <c r="Q13" s="67">
         <f>IF(P13="Excedido",IF(E13=J19,K19,IF(E13=J20,K20,IF(E13=J21,K21,IF(E13=J22,K22,IF(E13=J23,K23,IF(E13=J24,K24,IF(E13=J25,K25,"Excedido"))))))),P13)</f>
         <v>2</v>
       </c>
@@ -5715,7 +6303,7 @@
       </c>
       <c r="T13">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <f t="shared" si="3"/>
@@ -5745,15 +6333,15 @@
       </c>
       <c r="L14" s="3">
         <f>IF(D14=H4,I4,IF(D14=H5,I5,IF(D14=H6,I6,IF(D14=H7,I7,IF(D14=H8,I8,IF(D14=H9,I9,IF(D14=H10,I10,IF(D14=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3">
         <f>IF(L14="Excedido",IF(D14=H12,I12,IF(D14=H13,I13,IF(D14=H14,I14,IF(D14=H15,I15,IF(D14=H16,I16,IF(D14=H17,I17,IF(D14=H18:H18,I18,"Excedido"))))))),L14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3">
         <f>IF(M14="Excedido",IF(D14=H19,I19,IF(D14=H20,I20,IF(D14=H21,I21,IF(D14=H22,I22,IF(D14=H23,I23,IF(D14=H24,I24,IF(D14=H25,I25,"Excedido"))))))),M14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3">
         <f>IF(E14=J4,K4,IF(E14=J5,K5,IF(E14=J6,K6,IF(E14=J7,K7,IF(E14=J8,K8,IF(E14=J9,K9,IF(E14=J10,K10,IF(E14=J11,K11,"Excedido"))))))))</f>
@@ -5763,7 +6351,7 @@
         <f>IF(O14="Excedido",IF(E14=J12,K12,IF(E14=J13,K13,IF(E14=J14,K14,IF(E14=J15,K15,IF(E14=J16,K16,IF(E14=J17,K17,IF(E14=J18:J18,K18,"Excedido"))))))),O14)</f>
         <v>2</v>
       </c>
-      <c r="Q14" s="69">
+      <c r="Q14" s="67">
         <f>IF(P14="Excedido",IF(E14=J19,K19,IF(E14=J20,K20,IF(E14=J21,K21,IF(E14=J22,K22,IF(E14=J23,K23,IF(E14=J24,K24,IF(E14=J25,K25,"Excedido"))))))),P14)</f>
         <v>2</v>
       </c>
@@ -5777,7 +6365,7 @@
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <f t="shared" si="3"/>
@@ -5807,15 +6395,15 @@
       </c>
       <c r="L15" s="3">
         <f>IF(D15=H4,I4,IF(D15=H5,I5,IF(D15=H6,I6,IF(D15=H7,I7,IF(D15=H8,I8,IF(D15=H9,I9,IF(D15=H10,I10,IF(D15=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="3">
         <f>IF(L15="Excedido",IF(D15=H12,I12,IF(D15=H13,I13,IF(D15=H14,I14,IF(D15=H15,I15,IF(D15=H16,I16,IF(D15=H17,I17,IF(D15=H18:H18,I18,"Excedido"))))))),L15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3">
         <f>IF(M15="Excedido",IF(D15=H19,I19,IF(D15=H20,I20,IF(D15=H21,I21,IF(D15=H22,I22,IF(D15=H23,I23,IF(D15=H24,I24,IF(D15=H25,I25,"Excedido"))))))),M15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3">
         <f>IF(E15=J4,K4,IF(E15=J5,K5,IF(E15=J6,K6,IF(E15=J7,K7,IF(E15=J8,K8,IF(E15=J9,K9,IF(E15=J10,K10,IF(E15=J11,K11,"Excedido"))))))))</f>
@@ -5825,7 +6413,7 @@
         <f>IF(O15="Excedido",IF(E15=J12,K12,IF(E15=J13,K13,IF(E15=J14,K14,IF(E15=J15,K15,IF(E15=J16,K16,IF(E15=J17,K17,IF(E15=J18:J18,K18,"Excedido"))))))),O15)</f>
         <v>2</v>
       </c>
-      <c r="Q15" s="69">
+      <c r="Q15" s="67">
         <f>IF(P15="Excedido",IF(E15=J19,K19,IF(E15=J20,K20,IF(E15=J21,K21,IF(E15=J22,K22,IF(E15=J23,K23,IF(E15=J24,K24,IF(E15=J25,K25,"Excedido"))))))),P15)</f>
         <v>2</v>
       </c>
@@ -5839,7 +6427,7 @@
       </c>
       <c r="T15">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <f t="shared" si="3"/>
@@ -5869,15 +6457,15 @@
       </c>
       <c r="L16" s="3">
         <f>IF(D16=H4,I4,IF(D16=H5,I5,IF(D16=H6,I6,IF(D16=H7,I7,IF(D16=H8,I8,IF(D16=H9,I9,IF(D16=H10,I10,IF(D16=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="3">
         <f>IF(L16="Excedido",IF(D16=H12,I12,IF(D16=H13,I13,IF(D16=H14,I14,IF(D16=H15,I15,IF(D16=H16,I16,IF(D16=H17,I17,IF(D16=H18:H18,I18,"Excedido"))))))),L16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3">
         <f>IF(M16="Excedido",IF(D16=H19,I19,IF(D16=H20,I20,IF(D16=H21,I21,IF(D16=H22,I22,IF(D16=H23,I23,IF(D16=H24,I24,IF(D16=H25,I25,"Excedido"))))))),M16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3">
         <f>IF(E16=J4,K4,IF(E16=J5,K5,IF(E16=J6,K6,IF(E16=J7,K7,IF(E16=J8,K8,IF(E16=J9,K9,IF(E16=J10,K10,IF(E16=J11,K11,"Excedido"))))))))</f>
@@ -5887,7 +6475,7 @@
         <f>IF(O16="Excedido",IF(E16=J12,K12,IF(E16=J13,K13,IF(E16=J14,K14,IF(E16=J15,K15,IF(E16=J16,K16,IF(E16=J17,K17,IF(E16=J18:J18,K18,"Excedido"))))))),O16)</f>
         <v>2</v>
       </c>
-      <c r="Q16" s="69">
+      <c r="Q16" s="67">
         <f>IF(P16="Excedido",IF(E16=J19,K19,IF(E16=J20,K20,IF(E16=J21,K21,IF(E16=J22,K22,IF(E16=J23,K23,IF(E16=J24,K24,IF(E16=J25,K25,"Excedido"))))))),P16)</f>
         <v>2</v>
       </c>
@@ -5901,7 +6489,7 @@
       </c>
       <c r="T16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <f t="shared" si="3"/>
@@ -5931,15 +6519,15 @@
       </c>
       <c r="L17" s="3">
         <f>IF(D17=H4,I4,IF(D17=H5,I5,IF(D17=H6,I6,IF(D17=H7,I7,IF(D17=H8,I8,IF(D17=H9,I9,IF(D17=H10,I10,IF(D17=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3">
         <f>IF(L17="Excedido",IF(D17=H12,I12,IF(D17=H13,I13,IF(D17=H14,I14,IF(D17=H15,I15,IF(D17=H16,I16,IF(D17=H17,I17,IF(D17=H18:H18,I18,"Excedido"))))))),L17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3">
         <f>IF(M17="Excedido",IF(D17=H19,I19,IF(D17=H20,I20,IF(D17=H21,I21,IF(D17=H22,I22,IF(D17=H23,I23,IF(D17=H24,I24,IF(D17=H25,I25,"Excedido"))))))),M17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3">
         <f>IF(E17=J4,K4,IF(E17=J5,K5,IF(E17=J6,K6,IF(E17=J7,K7,IF(E17=J8,K8,IF(E17=J9,K9,IF(E17=J10,K10,IF(E17=J11,K11,"Excedido"))))))))</f>
@@ -5949,7 +6537,7 @@
         <f>IF(O17="Excedido",IF(E17=J12,K12,IF(E17=J13,K13,IF(E17=J14,K14,IF(E17=J15,K15,IF(E17=J16,K16,IF(E17=J17,K17,IF(E17=J18:J18,K18,"Excedido"))))))),O17)</f>
         <v>2</v>
       </c>
-      <c r="Q17" s="69">
+      <c r="Q17" s="67">
         <f>IF(P17="Excedido",IF(E17=J19,K19,IF(E17=J20,K20,IF(E17=J21,K21,IF(E17=J22,K22,IF(E17=J23,K23,IF(E17=J24,K24,IF(E17=J25,K25,"Excedido"))))))),P17)</f>
         <v>2</v>
       </c>
@@ -5963,7 +6551,7 @@
       </c>
       <c r="T17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <f t="shared" si="3"/>
@@ -5993,15 +6581,15 @@
       </c>
       <c r="L18" s="3">
         <f>IF(D18=H4,I4,IF(D18=H5,I5,IF(D18=H6,I6,IF(D18=H7,I7,IF(D18=H8,I8,IF(D18=H9,I9,IF(D18=H10,I10,IF(D18=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="3">
         <f>IF(L18="Excedido",IF(D18=H12,I12,IF(D18=H13,I13,IF(D18=H14,I14,IF(D18=H15,I15,IF(D18=H16,I16,IF(D18=H17,I17,IF(D18=H18:H18,I18,"Excedido"))))))),L18)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3">
         <f>IF(M18="Excedido",IF(D18=H19,I19,IF(D18=H20,I20,IF(D18=H21,I21,IF(D18=H22,I22,IF(D18=H23,I23,IF(D18=H24,I24,IF(D18=H25,I25,"Excedido"))))))),M18)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3">
         <f>IF(E18=J4,K4,IF(E18=J5,K5,IF(E18=J6,K6,IF(E18=J7,K7,IF(E18=J8,K8,IF(E18=J9,K9,IF(E18=J10,K10,IF(E18=J11,K11,"Excedido"))))))))</f>
@@ -6011,7 +6599,7 @@
         <f>IF(O18="Excedido",IF(E18=J12,K12,IF(E18=J13,K13,IF(E18=J14,K14,IF(E18=J15,K15,IF(E18=J16,K16,IF(E18=J17,K17,IF(E18=J18:J18,K18,"Excedido"))))))),O18)</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="69">
+      <c r="Q18" s="67">
         <f>IF(P18="Excedido",IF(E18=J19,K19,IF(E18=J20,K20,IF(E18=J21,K21,IF(E18=J22,K22,IF(E18=J23,K23,IF(E18=J24,K24,IF(E18=J25,K25,"Excedido"))))))),P18)</f>
         <v>2</v>
       </c>
@@ -6025,7 +6613,7 @@
       </c>
       <c r="T18">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <f t="shared" si="3"/>
@@ -6055,15 +6643,15 @@
       </c>
       <c r="L19" s="3">
         <f>IF(D19=H4,I4,IF(D19=H5,I5,IF(D19=H6,I6,IF(D19=H7,I7,IF(D19=H8,I8,IF(D19=H9,I9,IF(D19=H10,I10,IF(D19=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="3">
         <f>IF(L19="Excedido",IF(D19=H12,I12,IF(D19=H13,I13,IF(D19=H14,I14,IF(D19=H15,I15,IF(D19=H16,I16,IF(D19=H17,I17,IF(D19=H18:H18,I18,"Excedido"))))))),L19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3">
         <f>IF(M19="Excedido",IF(D19=H19,I19,IF(D19=H20,I20,IF(D19=H21,I21,IF(D19=H22,I22,IF(D19=H23,I23,IF(D19=H24,I24,IF(D19=H25,I25,"Excedido"))))))),M19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3">
         <f>IF(E19=J4,K4,IF(E19=J5,K5,IF(E19=J6,K6,IF(E19=J7,K7,IF(E19=J8,K8,IF(E19=J9,K9,IF(E19=J10,K10,IF(E19=J11,K11,"Excedido"))))))))</f>
@@ -6073,7 +6661,7 @@
         <f>IF(O19="Excedido",IF(E19=J12,K12,IF(E19=J13,K13,IF(E19=J14,K14,IF(E19=J15,K15,IF(E19=J16,K16,IF(E19=J17,K17,IF(E19=J18:J18,K18,"Excedido"))))))),O19)</f>
         <v>2</v>
       </c>
-      <c r="Q19" s="69">
+      <c r="Q19" s="67">
         <f>IF(P19="Excedido",IF(E19=J19,K19,IF(E19=J20,K20,IF(E19=J21,K21,IF(E19=J22,K22,IF(E19=J23,K23,IF(E19=J24,K24,IF(E19=J25,K25,"Excedido"))))))),P19)</f>
         <v>2</v>
       </c>
@@ -6087,7 +6675,7 @@
       </c>
       <c r="T19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <f t="shared" si="3"/>
@@ -6117,15 +6705,15 @@
       </c>
       <c r="L20" s="3">
         <f>IF(D20=H4,I4,IF(D20=H5,I5,IF(D20=H6,I6,IF(D20=H7,I7,IF(D20=H8,I8,IF(D20=H9,I9,IF(D20=H10,I10,IF(D20=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="3">
         <f>IF(L20="Excedido",IF(D20=H12,I12,IF(D20=H13,I13,IF(D20=H14,I14,IF(D20=H15,I15,IF(D20=H16,I16,IF(D20=H17,I17,IF(D20=H18:H18,I18,"Excedido"))))))),L20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3">
         <f>IF(M20="Excedido",IF(D20=H19,I19,IF(D20=H20,I20,IF(D20=H21,I21,IF(D20=H22,I22,IF(D20=H23,I23,IF(D20=H24,I24,IF(D20=H25,I25,"Excedido"))))))),M20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3">
         <f>IF(E20=J4,K4,IF(E20=J5,K5,IF(E20=J6,K6,IF(E20=J7,K7,IF(E20=J8,K8,IF(E20=J9,K9,IF(E20=J10,K10,IF(E20=J11,K11,"Excedido"))))))))</f>
@@ -6135,7 +6723,7 @@
         <f>IF(O20="Excedido",IF(E20=J12,K12,IF(E20=J13,K13,IF(E20=J14,K14,IF(E20=J15,K15,IF(E20=J16,K16,IF(E20=J17,K17,IF(E20=J18:J18,K18,"Excedido"))))))),O20)</f>
         <v>2</v>
       </c>
-      <c r="Q20" s="69">
+      <c r="Q20" s="67">
         <f>IF(P20="Excedido",IF(E20=J19,K19,IF(E20=J20,K20,IF(E20=J21,K21,IF(E20=J22,K22,IF(E20=J23,K23,IF(E20=J24,K24,IF(E20=J25,K25,"Excedido"))))))),P20)</f>
         <v>2</v>
       </c>
@@ -6149,7 +6737,7 @@
       </c>
       <c r="T20">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <f t="shared" si="3"/>
@@ -6179,15 +6767,15 @@
       </c>
       <c r="L21" s="3">
         <f>IF(D21=H4,I4,IF(D21=H5,I5,IF(D21=H6,I6,IF(D21=H7,I7,IF(D21=H8,I8,IF(D21=H9,I9,IF(D21=H10,I10,IF(D21=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="3">
         <f>IF(L21="Excedido",IF(D21=H12,I12,IF(D21=H13,I13,IF(D21=H14,I14,IF(D21=H15,I15,IF(D21=H16,I16,IF(D21=H17,I17,IF(D21=H18:H18,I18,"Excedido"))))))),L21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3">
         <f>IF(M21="Excedido",IF(D21=H19,I19,IF(D21=H20,I20,IF(D21=H21,I21,IF(D21=H22,I22,IF(D21=H23,I23,IF(D21=H24,I24,IF(D21=H25,I25,"Excedido"))))))),M21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3">
         <f>IF(E21=J4,K4,IF(E21=J5,K5,IF(E21=J6,K6,IF(E21=J7,K7,IF(E21=J8,K8,IF(E21=J9,K9,IF(E21=J10,K10,IF(E21=J11,K11,"Excedido"))))))))</f>
@@ -6197,7 +6785,7 @@
         <f>IF(O21="Excedido",IF(E21=J12,K12,IF(E21=J13,K13,IF(E21=J14,K14,IF(E21=J15,K15,IF(E21=J16,K16,IF(E21=J17,K17,IF(E21=J18:J18,K18,"Excedido"))))))),O21)</f>
         <v>2</v>
       </c>
-      <c r="Q21" s="69">
+      <c r="Q21" s="67">
         <f>IF(P21="Excedido",IF(E21=J19,K19,IF(E21=J20,K20,IF(E21=J21,K21,IF(E21=J22,K22,IF(E21=J23,K23,IF(E21=J24,K24,IF(E21=J25,K25,"Excedido"))))))),P21)</f>
         <v>2</v>
       </c>
@@ -6211,7 +6799,7 @@
       </c>
       <c r="T21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <f t="shared" si="3"/>
@@ -6241,15 +6829,15 @@
       </c>
       <c r="L22" s="3">
         <f>IF(D22=H4,I4,IF(D22=H5,I5,IF(D22=H6,I6,IF(D22=H7,I7,IF(D22=H8,I8,IF(D22=H9,I9,IF(D22=H10,I10,IF(D22=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="3">
         <f>IF(L22="Excedido",IF(D22=H12,I12,IF(D22=H13,I13,IF(D22=H14,I14,IF(D22=H15,I15,IF(D22=H16,I16,IF(D22=H17,I17,IF(D22=H18:H18,I18,"Excedido"))))))),L22)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3">
         <f>IF(M22="Excedido",IF(D22=H19,I19,IF(D22=H20,I20,IF(D22=H21,I21,IF(D22=H22,I22,IF(D22=H23,I23,IF(D22=H24,I24,IF(D22=H25,I25,"Excedido"))))))),M22)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3">
         <f>IF(E22=J4,K4,IF(E22=J5,K5,IF(E22=J6,K6,IF(E22=J7,K7,IF(E22=J8,K8,IF(E22=J9,K9,IF(E22=J10,K10,IF(E22=J11,K11,"Excedido"))))))))</f>
@@ -6259,7 +6847,7 @@
         <f>IF(O22="Excedido",IF(E22=J12,K12,IF(E22=J13,K13,IF(E22=J14,K14,IF(E22=J15,K15,IF(E22=J16,K16,IF(E22=J17,K17,IF(E22=J18:J18,K18,"Excedido"))))))),O22)</f>
         <v>2</v>
       </c>
-      <c r="Q22" s="69">
+      <c r="Q22" s="67">
         <f>IF(P22="Excedido",IF(E22=J19,K19,IF(E22=J20,K20,IF(E22=J21,K21,IF(E22=J22,K22,IF(E22=J23,K23,IF(E22=J24,K24,IF(E22=J25,K25,"Excedido"))))))),P22)</f>
         <v>2</v>
       </c>
@@ -6273,7 +6861,7 @@
       </c>
       <c r="T22">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <f t="shared" si="3"/>
@@ -6281,11 +6869,11 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="90"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="6"/>
       <c r="H23" s="9">
         <f>Bienes!C23</f>
@@ -6303,15 +6891,15 @@
       </c>
       <c r="L23" s="3">
         <f>IF(D23=H4,I4,IF(D23=H5,I5,IF(D23=H6,I6,IF(D23=H7,I7,IF(D23=H8,I8,IF(D23=H9,I9,IF(D23=H10,I10,IF(D23=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="3">
         <f>IF(L23="Excedido",IF(D23=H12,I12,IF(D23=H13,I13,IF(D23=H14,I14,IF(D23=H15,I15,IF(D23=H16,I16,IF(D23=H17,I17,IF(D23=H18:H18,I18,"Excedido"))))))),L23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3">
         <f>IF(M23="Excedido",IF(D23=H19,I19,IF(D23=H20,I20,IF(D23=H21,I21,IF(D23=H22,I22,IF(D23=H23,I23,IF(D23=H24,I24,IF(D23=H25,I25,"Excedido"))))))),M23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3">
         <f>IF(E23=J4,K4,IF(E23=J5,K5,IF(E23=J6,K6,IF(E23=J7,K7,IF(E23=J8,K8,IF(E23=J9,K9,IF(E23=J10,K10,IF(E23=J11,K11,"Excedido"))))))))</f>
@@ -6321,7 +6909,7 @@
         <f>IF(O23="Excedido",IF(E23=J12,K12,IF(E23=J13,K13,IF(E23=J14,K14,IF(E23=J15,K15,IF(E23=J16,K16,IF(E23=J17,K17,IF(E23=J18:J18,K18,"Excedido"))))))),O23)</f>
         <v>2</v>
       </c>
-      <c r="Q23" s="69">
+      <c r="Q23" s="67">
         <f>IF(P23="Excedido",IF(E23=J19,K19,IF(E23=J20,K20,IF(E23=J21,K21,IF(E23=J22,K22,IF(E23=J23,K23,IF(E23=J24,K24,IF(E23=J25,K25,"Excedido"))))))),P23)</f>
         <v>2</v>
       </c>
@@ -6335,7 +6923,7 @@
       </c>
       <c r="T23">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <f t="shared" si="3"/>
@@ -6343,11 +6931,11 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="90"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="6"/>
       <c r="H24" s="9">
         <f>Bienes!C24</f>
@@ -6365,15 +6953,15 @@
       </c>
       <c r="L24" s="3">
         <f>IF(D24=H4,I4,IF(D24=H5,I5,IF(D24=H6,I6,IF(D24=H7,I7,IF(D24=H8,I8,IF(D24=H9,I9,IF(D24=H10,I10,IF(D24=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" s="3">
         <f>IF(L24="Excedido",IF(D24=H12,I12,IF(D24=H13,I13,IF(D24=H14,I14,IF(D24=H15,I15,IF(D24=H16,I16,IF(D24=H17,I17,IF(D24=H18:H18,I18,"Excedido"))))))),L24)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" s="3">
         <f>IF(M24="Excedido",IF(D24=H19,I19,IF(D24=H20,I20,IF(D24=H21,I21,IF(D24=H22,I22,IF(D24=H23,I23,IF(D24=H24,I24,IF(D24=H25,I25,"Excedido"))))))),M24)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3">
         <f>IF(E24=J4,K4,IF(E24=J5,K5,IF(E24=J6,K6,IF(E24=J7,K7,IF(E24=J8,K8,IF(E24=J9,K9,IF(E24=J10,K10,IF(E24=J11,K11,"Excedido"))))))))</f>
@@ -6383,7 +6971,7 @@
         <f>IF(O24="Excedido",IF(E24=J12,K12,IF(E24=J13,K13,IF(E24=J14,K14,IF(E24=J15,K15,IF(E24=J16,K16,IF(E24=J17,K17,IF(E24=J18:J18,K18,"Excedido"))))))),O24)</f>
         <v>2</v>
       </c>
-      <c r="Q24" s="69">
+      <c r="Q24" s="67">
         <f>IF(P24="Excedido",IF(E24=J19,K19,IF(E24=J20,K20,IF(E24=J21,K21,IF(E24=J22,K22,IF(E24=J23,K23,IF(E24=J24,K24,IF(E24=J25,K25,"Excedido"))))))),P24)</f>
         <v>2</v>
       </c>
@@ -6397,7 +6985,7 @@
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <f t="shared" si="3"/>
@@ -6427,15 +7015,15 @@
       </c>
       <c r="L25" s="12">
         <f>IF(D25=H4,I4,IF(D25=H5,I5,IF(D25=H6,I6,IF(D25=H7,I7,IF(D25=H8,I8,IF(D25=H9,I9,IF(D25=H10,I10,IF(D25=H11,I11,"Excedido"))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="12">
         <f>IF(L25="Excedido",IF(D25=H12,I12,IF(D25=H13,I13,IF(D25=H14,I14,IF(D25=H15,I15,IF(D25=H16,I16,IF(D25=H17,I17,IF(D25=H18:H18,I18,"Excedido"))))))),L25)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="12">
         <f>IF(M25="Excedido",IF(D25=H19,I19,IF(D25=H20,I20,IF(D25=H21,I21,IF(D25=H22,I22,IF(D25=H23,I23,IF(D25=H24,I24,IF(D25=H25,I25,"Excedido"))))))),M25)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="12">
         <f>IF(E25=J4,K4,IF(E25=J5,K5,IF(E25=J6,K6,IF(E25=J7,K7,IF(E25=J8,K8,IF(E25=J9,K9,IF(E25=J10,K10,IF(E25=J11,K11,"Excedido"))))))))</f>
@@ -6445,7 +7033,7 @@
         <f>IF(O25="Excedido",IF(E25=J12,K12,IF(E25=J13,K13,IF(E25=J14,K14,IF(E25=J15,K15,IF(E25=J16,K16,IF(E25=J17,K17,IF(E25=J18:J18,K18,"Excedido"))))))),O25)</f>
         <v>2</v>
       </c>
-      <c r="Q25" s="78">
+      <c r="Q25" s="76">
         <f>IF(P25="Excedido",IF(E25=J19,K19,IF(E25=J20,K20,IF(E25=J21,K21,IF(E25=J22,K22,IF(E25=J23,K23,IF(E25=J24,K24,IF(E25=J25,K25,"Excedido"))))))),P25)</f>
         <v>2</v>
       </c>
@@ -6459,7 +7047,7 @@
       </c>
       <c r="T25">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U25">
         <f t="shared" si="3"/>
@@ -6501,6 +7089,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6529,31 +7118,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="139"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="154"/>
       <c r="F1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="139"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="154"/>
       <c r="O1" s="6"/>
-      <c r="P1" s="151" t="s">
+      <c r="P1" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="152"/>
+      <c r="Q1" s="167"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -6607,33 +7196,33 @@
       </c>
     </row>
     <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="57"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="55"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="64"/>
+      <c r="P3" s="62"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>6</v>
@@ -6645,7 +7234,7 @@
         <v>12.5</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H4" s="26">
         <v>12</v>
@@ -6680,13 +7269,13 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>6</v>
@@ -6698,7 +7287,7 @@
         <v>13.5</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H5" s="26">
         <v>12</v>
@@ -7170,6 +7759,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7190,21 +7780,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="139"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="154"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="139"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="154"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
@@ -7238,11 +7828,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="2"/>
@@ -7255,7 +7845,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C4" s="23">
         <v>15</v>
@@ -7264,7 +7854,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="9">
